--- a/uploaded_files/cleaned_Rest 8 months.xlsx
+++ b/uploaded_files/cleaned_Rest 8 months.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,876 +568,760 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C2" t="n">
-        <v>169500</v>
-      </c>
-      <c r="D2" t="n">
-        <v>164500</v>
-      </c>
-      <c r="E2" t="n">
-        <v>164500</v>
-      </c>
-      <c r="F2" t="n">
-        <v>164500</v>
-      </c>
-      <c r="G2" t="n">
-        <v>164500</v>
-      </c>
-      <c r="H2" t="n">
-        <v>164500</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149500</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.02003938364303789</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.01815866212342582</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.01792308398830048</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.01405434989344338</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.01662047508273127</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.01121864271463214</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.01208198602449428</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.001316801395128254</v>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounts &amp; Finance</t>
+          <t xml:space="preserve"> Food &amp; Menu Sale</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122500</v>
+        <v>7675911.66</v>
       </c>
       <c r="C3" t="n">
-        <v>121666</v>
+        <v>8479431.91</v>
       </c>
       <c r="D3" t="n">
-        <v>127500</v>
+        <v>7867590.62</v>
       </c>
       <c r="E3" t="n">
-        <v>139500</v>
+        <v>10225831.2</v>
       </c>
       <c r="F3" t="n">
-        <v>126083</v>
+        <v>8593215.15</v>
       </c>
       <c r="G3" t="n">
-        <v>100000</v>
+        <v>12931382.07</v>
       </c>
       <c r="H3" t="n">
-        <v>100000</v>
+        <v>12312355.41</v>
       </c>
       <c r="I3" t="n">
-        <v>105000</v>
+        <v>10387147.68</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>834</v>
+        <v>-803520.25</v>
       </c>
       <c r="M3" t="n">
-        <v>-5834</v>
+        <v>611841.29</v>
       </c>
       <c r="N3" t="n">
-        <v>-12000</v>
+        <v>-2358240.579999999</v>
       </c>
       <c r="O3" t="n">
-        <v>13417</v>
+        <v>1632616.049999999</v>
       </c>
       <c r="P3" t="n">
-        <v>26083</v>
+        <v>-4338166.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>619026.6600000001</v>
       </c>
       <c r="R3" t="n">
-        <v>-5000</v>
+        <v>1925207.73</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01448274039098608</v>
+        <v>0.907495802742229</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01303416982837007</v>
+        <v>0.9084079000134825</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01389175202740614</v>
+        <v>0.8572126897740123</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01191843045674986</v>
+        <v>0.8736620646570818</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0127389626738967</v>
+        <v>0.8682268588518167</v>
       </c>
       <c r="X3" t="n">
-        <v>0.006819843595521059</v>
+        <v>0.8819000319132535</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00734467235531567</v>
+        <v>0.9043021640864833</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.009217609765897776</v>
+        <v>0.9118540370951469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Admin &amp; HR</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="F4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="G4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54500</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.006443341643336666</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.005838625874493849</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.005938043023479489</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.004656304371991879</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.005506479586679965</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.003716814759558977</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.00400284643364704</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.004784378402299322</v>
-      </c>
+          <t xml:space="preserve"> Beverages</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Benefits (Direct &amp; Indirect)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>306849</v>
-      </c>
-      <c r="C5" t="n">
-        <v>401112</v>
-      </c>
-      <c r="D5" t="n">
-        <v>391247</v>
-      </c>
+          <t xml:space="preserve"> Bar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>332457</v>
+        <v>69140</v>
       </c>
       <c r="F5" t="n">
-        <v>251548</v>
+        <v>171651</v>
       </c>
       <c r="G5" t="n">
-        <v>281790</v>
+        <v>186775</v>
       </c>
       <c r="H5" t="n">
-        <v>293731</v>
+        <v>156284.75</v>
       </c>
       <c r="I5" t="n">
-        <v>462852</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>-94263</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9865</v>
-      </c>
-      <c r="N5" t="n">
-        <v>58790</v>
-      </c>
+        <v>193411.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>80909</v>
+        <v>-102511</v>
       </c>
       <c r="P5" t="n">
-        <v>-30242</v>
+        <v>-15124</v>
       </c>
       <c r="Q5" t="n">
-        <v>-11941</v>
+        <v>30490.25</v>
       </c>
       <c r="R5" t="n">
-        <v>-169121</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.03627766862231583</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0429714293902748</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.04262828474875743</v>
-      </c>
+        <v>-37126.75</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>0.02840405472659274</v>
+        <v>0.005907098794119606</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02541548490037012</v>
+        <v>0.0173429858262973</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01921763726781879</v>
+        <v>0.01273776287553446</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02157357955599227</v>
+        <v>0.01147860282882421</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0406322772891935</v>
+        <v>0.01697896886892322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Legal Services</t>
+          <t xml:space="preserve"> Other Beverages</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>945</v>
+        <v>383619</v>
       </c>
       <c r="C6" t="n">
-        <v>1180</v>
+        <v>609055</v>
       </c>
       <c r="D6" t="n">
-        <v>1075</v>
+        <v>508930</v>
       </c>
       <c r="E6" t="n">
-        <v>1295</v>
+        <v>629435</v>
       </c>
       <c r="F6" t="n">
-        <v>1130</v>
+        <v>487730</v>
       </c>
       <c r="G6" t="n">
-        <v>1495</v>
+        <v>546619.99</v>
       </c>
       <c r="H6" t="n">
-        <v>1420</v>
+        <v>461156</v>
       </c>
       <c r="I6" t="n">
-        <v>1495</v>
+        <v>480384</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-235</v>
+        <v>-225436</v>
       </c>
       <c r="M6" t="n">
-        <v>105</v>
+        <v>100125</v>
       </c>
       <c r="N6" t="n">
-        <v>-220</v>
+        <v>-120505</v>
       </c>
       <c r="O6" t="n">
-        <v>165</v>
+        <v>141705</v>
       </c>
       <c r="P6" t="n">
-        <v>-365</v>
+        <v>-58889.98999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>75</v>
+        <v>85463.98999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>-75</v>
+        <v>-19228</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001117239973018927</v>
+        <v>0.04535391335550768</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0001264142849890411</v>
+        <v>0.06524851893559359</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001171265367016597</v>
+        <v>0.05545042634751222</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001106406268207245</v>
+        <v>0.0537768980254075</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001141710446412543</v>
+        <v>0.04927844566626458</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001019566617530398</v>
+        <v>0.03727862837985285</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001042943474454825</v>
+        <v>0.03387039724687953</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001312412057144493</v>
+        <v>0.0421713547598194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mobile Charges</t>
+          <t>Total 20 Beverages</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14771</v>
+        <v>383619</v>
       </c>
       <c r="C7" t="n">
-        <v>26706</v>
+        <v>609055</v>
       </c>
       <c r="D7" t="n">
-        <v>21140</v>
+        <v>508930</v>
       </c>
       <c r="E7" t="n">
-        <v>22474</v>
+        <v>698575</v>
       </c>
       <c r="F7" t="n">
-        <v>32805</v>
+        <v>659381</v>
       </c>
       <c r="G7" t="n">
-        <v>28341</v>
+        <v>733394.99</v>
       </c>
       <c r="H7" t="n">
-        <v>28081</v>
+        <v>617440.75</v>
       </c>
       <c r="I7" t="n">
-        <v>25000</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>673795.5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="L7" t="n">
-        <v>-11935</v>
+        <v>-225436</v>
       </c>
       <c r="M7" t="n">
-        <v>5566</v>
+        <v>100125</v>
       </c>
       <c r="N7" t="n">
-        <v>-1334</v>
+        <v>-189645</v>
       </c>
       <c r="O7" t="n">
-        <v>-10331</v>
+        <v>39194</v>
       </c>
       <c r="P7" t="n">
-        <v>4464</v>
+        <v>-74013.98999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>260</v>
+        <v>115954.24</v>
       </c>
       <c r="R7" t="n">
-        <v>3081</v>
+        <v>-56354.75</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001746322925022494</v>
+        <v>0.04535391335550768</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002861033809251977</v>
+        <v>0.06524851893559359</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00230330696360287</v>
+        <v>0.05545042634751222</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001920106136810009</v>
+        <v>0.0596839968195271</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003314496565890573</v>
+        <v>0.06662143149256186</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001932811873406623</v>
+        <v>0.0500163912553873</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002062457444096194</v>
+        <v>0.04534900007570374</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.002194668991880423</v>
+        <v>0.05915032362874262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Telephone Bill</t>
+          <t xml:space="preserve"> Dawat Box</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5640</v>
+        <v>371700</v>
       </c>
       <c r="C8" t="n">
-        <v>5680</v>
+        <v>187200</v>
       </c>
       <c r="D8" t="n">
-        <v>8160</v>
+        <v>648900</v>
       </c>
       <c r="E8" t="n">
-        <v>7760</v>
+        <v>377200</v>
       </c>
       <c r="F8" t="n">
-        <v>7490</v>
+        <v>402590</v>
       </c>
       <c r="G8" t="n">
-        <v>7620</v>
+        <v>711686</v>
       </c>
       <c r="H8" t="n">
-        <v>8080</v>
+        <v>371027.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8330</v>
+        <v>72575</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-40</v>
+        <v>184500</v>
       </c>
       <c r="M8" t="n">
-        <v>-2480</v>
+        <v>-461700</v>
       </c>
       <c r="N8" t="n">
-        <v>400</v>
+        <v>271700</v>
       </c>
       <c r="O8" t="n">
-        <v>270</v>
+        <v>-25390</v>
       </c>
       <c r="P8" t="n">
-        <v>-130</v>
+        <v>-309096</v>
       </c>
       <c r="Q8" t="n">
-        <v>-460</v>
+        <v>340658.5</v>
       </c>
       <c r="R8" t="n">
-        <v>-250</v>
+        <v>298452.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0006667971902462165</v>
+        <v>0.04394477227207778</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0006085026599472489</v>
+        <v>0.02005487639826144</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008890721297539932</v>
+        <v>0.07070084620065763</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006629893931496694</v>
+        <v>0.03222675246083187</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0007567620569584025</v>
+        <v>0.04067621315232086</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0005196720819787046</v>
+        <v>0.04853587209122</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0005934495263095062</v>
+        <v>0.02725075422311885</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007312637080945568</v>
+        <v>0.006371124083428868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Equipment Repair &amp; Maintenance</t>
+          <t xml:space="preserve"> Food Panda</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27450</v>
+        <v>2613.32</v>
       </c>
       <c r="C9" t="n">
-        <v>26351</v>
+        <v>46701.21</v>
       </c>
       <c r="D9" t="n">
-        <v>5830</v>
+        <v>27451.93</v>
       </c>
       <c r="E9" t="n">
-        <v>43640</v>
+        <v>40537.63</v>
       </c>
       <c r="F9" t="n">
-        <v>88360</v>
+        <v>65700.95</v>
       </c>
       <c r="G9" t="n">
-        <v>68010</v>
+        <v>42908</v>
       </c>
       <c r="H9" t="n">
-        <v>74030</v>
+        <v>30080.17</v>
       </c>
       <c r="I9" t="n">
-        <v>21370</v>
+        <v>49402</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1099</v>
+        <v>-44087.89</v>
       </c>
       <c r="M9" t="n">
-        <v>20521</v>
+        <v>19249.28</v>
       </c>
       <c r="N9" t="n">
-        <v>-37810</v>
+        <v>-13085.7</v>
       </c>
       <c r="O9" t="n">
-        <v>-44720</v>
+        <v>-25163.32</v>
       </c>
       <c r="P9" t="n">
-        <v>20350</v>
+        <v>22792.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>-6020</v>
+        <v>12827.83</v>
       </c>
       <c r="R9" t="n">
-        <v>52660</v>
+        <v>-19321.83</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003245316112102596</v>
+        <v>0.0003089635519883409</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002823002393005274</v>
+        <v>0.005003135652773777</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0006352071711355123</v>
+        <v>0.00299102277830362</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003728460968692213</v>
+        <v>0.003463404473379617</v>
       </c>
       <c r="W9" t="n">
-        <v>0.008927569473009938</v>
+        <v>0.006638182385329927</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004638175629313871</v>
+        <v>0.002926258489966176</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.005437260944640191</v>
+        <v>0.002209289930421957</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.001876003054259385</v>
+        <v>0.004336841501475066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vehicle Repair &amp; Maintenance</t>
+          <t xml:space="preserve"> Other Services</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1538</v>
+        <v>24500</v>
       </c>
       <c r="C10" t="n">
-        <v>862</v>
+        <v>12000</v>
       </c>
       <c r="D10" t="n">
-        <v>5860</v>
+        <v>125235.42</v>
       </c>
       <c r="E10" t="n">
-        <v>3300</v>
+        <v>362417.48</v>
       </c>
       <c r="F10" t="n">
-        <v>11415</v>
+        <v>176543.58</v>
       </c>
       <c r="G10" t="n">
-        <v>5910</v>
+        <v>243721.81</v>
       </c>
       <c r="H10" t="n">
-        <v>1340</v>
+        <v>284407.4</v>
       </c>
       <c r="I10" t="n">
-        <v>9100</v>
+        <v>208319.27</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>676</v>
+        <v>12500</v>
       </c>
       <c r="M10" t="n">
-        <v>-4998</v>
+        <v>-113235.42</v>
       </c>
       <c r="N10" t="n">
-        <v>2560</v>
+        <v>-237182.06</v>
       </c>
       <c r="O10" t="n">
-        <v>-8115</v>
+        <v>185873.9</v>
       </c>
       <c r="P10" t="n">
-        <v>5505</v>
+        <v>-67178.23000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>4570</v>
+        <v>-40685.59000000003</v>
       </c>
       <c r="R10" t="n">
-        <v>-7760</v>
+        <v>76088.13000000003</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001818322834394824</v>
+        <v>0.002896548078197217</v>
       </c>
       <c r="T10" t="n">
-        <v>9.234670649199445e-05</v>
+        <v>0.001285568999888554</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0006384758186713726</v>
+        <v>0.0136450148995142</v>
       </c>
       <c r="V10" t="n">
-        <v>0.000281941365643545</v>
+        <v>0.03096378158917944</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001153329623522051</v>
+        <v>0.01783731411797066</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0004030527564952946</v>
+        <v>0.016621446250173</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.841860956122999e-05</v>
+        <v>0.02088879168427206</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0007988595130444738</v>
+        <v>0.01828767369120662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Computer &amp; Accessories</t>
+          <t>Total Income</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4350</v>
+        <v>8458343.98</v>
       </c>
       <c r="C11" t="n">
-        <v>850</v>
+        <v>9334388.120000001</v>
       </c>
       <c r="D11" t="n">
-        <v>5900</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+        <v>9178107.970000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11704561.31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9897430.68</v>
+      </c>
       <c r="G11" t="n">
-        <v>5200</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>14663092.87</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13615311.23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11391239.45</v>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="L11" t="n">
-        <v>3500</v>
+        <v>-876044.1400000006</v>
       </c>
       <c r="M11" t="n">
-        <v>-5050</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+        <v>156280.1500000004</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-2526453.34</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1807130.630000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-4765662.190000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1047781.640000001</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2224071.780000001</v>
+      </c>
       <c r="S11" t="n">
-        <v>0.0005142850669452202</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>9.10611374921059e-05</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0.000642834015385853</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
       <c r="X11" t="n">
-        <v>0.000354631866967095</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Building Repair &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20070</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E12" t="n">
-        <v>85580</v>
-      </c>
-      <c r="F12" t="n">
-        <v>56260</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1100</v>
-      </c>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>9930</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14210</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-79720</v>
-      </c>
-      <c r="O12" t="n">
-        <v>29320</v>
-      </c>
-      <c r="P12" t="n">
-        <v>55160</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>0.003546793565139449</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.002150114152313606</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0006384758186713726</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.007311679415689267</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.005684303514616786</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.501827955073164e-05</v>
-      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuel Charges</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>700</v>
-      </c>
+          <t xml:space="preserve"> Supplies and Materials</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -1445,12 +1329,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1458,9 +1342,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>8.275851651992049e-05</v>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1472,646 +1354,6238 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Transportation &amp; Carriage</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>320</v>
-      </c>
+          <t xml:space="preserve"> Meat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>2200</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>2500</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>350</v>
-      </c>
-      <c r="I14" t="n">
-        <v>650</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>-300</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.783246469482079e-05</v>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>0.0002397008192964197</v>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>0.0002525908067284387</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>2.570635324360485e-05</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5.706139378889099e-05</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Printing</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t xml:space="preserve"> Mutton</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>620143</v>
+      </c>
       <c r="C15" t="n">
-        <v>30000</v>
+        <v>697655</v>
       </c>
       <c r="D15" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>726473</v>
+      </c>
+      <c r="E15" t="n">
+        <v>831917</v>
+      </c>
       <c r="F15" t="n">
-        <v>48825</v>
+        <v>643501</v>
       </c>
       <c r="G15" t="n">
-        <v>6550</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+        <v>927674</v>
+      </c>
+      <c r="H15" t="n">
+        <v>902742</v>
+      </c>
+      <c r="I15" t="n">
+        <v>762178</v>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>-77512</v>
+      </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+        <v>-28818</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-105444</v>
+      </c>
+      <c r="O15" t="n">
+        <v>188416</v>
+      </c>
       <c r="P15" t="n">
-        <v>42275</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+        <v>-284173</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>24932</v>
+      </c>
+      <c r="R15" t="n">
+        <v>140564</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.07331730672887578</v>
+      </c>
       <c r="T15" t="n">
-        <v>0.003213922499721385</v>
+        <v>0.07474030338477075</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003268647535860269</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
+        <v>0.07915280604396724</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.07107630760063061</v>
+      </c>
       <c r="W15" t="n">
-        <v>0.004933098455406409</v>
+        <v>0.06501697468822283</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0004466997555066293</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+        <v>0.06326591587631403</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.06630344211382379</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.06690913691573748</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stationary Expense</t>
+          <t xml:space="preserve"> Chicken</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14710</v>
+        <v>1014477</v>
       </c>
       <c r="C16" t="n">
-        <v>17881</v>
+        <v>1167824</v>
       </c>
       <c r="D16" t="n">
-        <v>13280</v>
+        <v>1127693</v>
       </c>
       <c r="E16" t="n">
-        <v>19790</v>
+        <v>1155256</v>
       </c>
       <c r="F16" t="n">
-        <v>16030</v>
+        <v>1089110</v>
       </c>
       <c r="G16" t="n">
-        <v>21922</v>
+        <v>1495680</v>
       </c>
       <c r="H16" t="n">
-        <v>18107</v>
+        <v>1831514</v>
       </c>
       <c r="I16" t="n">
-        <v>12380</v>
+        <v>1686495</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-3171</v>
+        <v>-153347</v>
       </c>
       <c r="M16" t="n">
-        <v>4601</v>
+        <v>40131</v>
       </c>
       <c r="N16" t="n">
-        <v>-6510</v>
+        <v>-27563</v>
       </c>
       <c r="O16" t="n">
-        <v>3760</v>
+        <v>66146</v>
       </c>
       <c r="P16" t="n">
-        <v>-5892</v>
+        <v>-406570</v>
       </c>
       <c r="Q16" t="n">
-        <v>3815</v>
+        <v>-335834</v>
       </c>
       <c r="R16" t="n">
-        <v>5727</v>
+        <v>145019</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001739111111440043</v>
+        <v>0.1199380165193991</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001915604940583936</v>
+        <v>0.1251098609771542</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001446921309207479</v>
+        <v>0.1228676981885625</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001690793826086592</v>
+        <v>0.09870134979027248</v>
       </c>
       <c r="W16" t="n">
-        <v>0.001619612252742749</v>
+        <v>0.110039669406404</v>
       </c>
       <c r="X16" t="n">
-        <v>0.001495046113010126</v>
+        <v>0.1020030366894894</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001329899823377008</v>
+        <v>0.1345187024417362</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.001086800084779185</v>
+        <v>0.1480519312584549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Agency Fee</t>
+          <t xml:space="preserve"> Beef</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85000</v>
+        <v>191591</v>
       </c>
       <c r="C17" t="n">
-        <v>85000</v>
+        <v>183108</v>
       </c>
       <c r="D17" t="n">
-        <v>85000</v>
+        <v>222281</v>
       </c>
       <c r="E17" t="n">
-        <v>85000</v>
+        <v>144761</v>
       </c>
       <c r="F17" t="n">
-        <v>85000</v>
+        <v>123246</v>
       </c>
       <c r="G17" t="n">
-        <v>85000</v>
+        <v>186171</v>
       </c>
       <c r="H17" t="n">
-        <v>85000</v>
+        <v>160691</v>
       </c>
       <c r="I17" t="n">
-        <v>130000</v>
+        <v>130090</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>8483</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-39173</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>77520</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>21515</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-62925</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>25480</v>
       </c>
       <c r="R17" t="n">
-        <v>-45000</v>
+        <v>30601</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01004924843456177</v>
+        <v>0.02265112419795441</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00910611374921059</v>
+        <v>0.01961649736929945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.009261168018270764</v>
+        <v>0.02421860809728522</v>
       </c>
       <c r="V17" t="n">
-        <v>0.007262126084757977</v>
+        <v>0.01236791334300764</v>
       </c>
       <c r="W17" t="n">
-        <v>0.008588087428766917</v>
+        <v>0.01245232262642126</v>
       </c>
       <c r="X17" t="n">
-        <v>0.005796867056192899</v>
+        <v>0.01269657102021751</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.00624297150201832</v>
+        <v>0.0118022274544803</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0114122787577782</v>
+        <v>0.01142017956614897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ad Spend</t>
+          <t xml:space="preserve"> Fish &amp; Prawns</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50000</v>
+        <v>1486</v>
       </c>
       <c r="C18" t="n">
-        <v>86083</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22492</v>
+        <v>12000</v>
       </c>
       <c r="E18" t="n">
-        <v>84028</v>
+        <v>23500</v>
       </c>
       <c r="F18" t="n">
-        <v>65325</v>
+        <v>48901</v>
       </c>
       <c r="G18" t="n">
-        <v>256228</v>
+        <v>137338</v>
       </c>
       <c r="H18" t="n">
-        <v>186283</v>
+        <v>132789</v>
       </c>
       <c r="I18" t="n">
-        <v>38465</v>
+        <v>77790</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-36083</v>
+        <v>1486</v>
       </c>
       <c r="M18" t="n">
-        <v>63591</v>
+        <v>-12000</v>
       </c>
       <c r="N18" t="n">
-        <v>-61536</v>
+        <v>-11500</v>
       </c>
       <c r="O18" t="n">
-        <v>18703</v>
+        <v>-25401</v>
       </c>
       <c r="P18" t="n">
-        <v>-190903</v>
+        <v>-88437</v>
       </c>
       <c r="Q18" t="n">
-        <v>69945</v>
+        <v>4549</v>
       </c>
       <c r="R18" t="n">
-        <v>147818</v>
+        <v>54999</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005911322608565749</v>
+        <v>0.000175684507926574</v>
       </c>
       <c r="T18" t="n">
-        <v>0.009222136351450532</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002450614012552306</v>
+        <v>0.001307459014344108</v>
       </c>
       <c r="V18" t="n">
-        <v>0.007179081537059332</v>
+        <v>0.002007764270491911</v>
       </c>
       <c r="W18" t="n">
-        <v>0.006600197779814104</v>
+        <v>0.004940777215930953</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0174743488479317</v>
+        <v>0.009366236797216711</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01368187600365269</v>
+        <v>0.009752916973900126</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.003376717710907219</v>
+        <v>0.006828932035135123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ad Production</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Total 2501 Meat</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1827697</v>
+      </c>
       <c r="C19" t="n">
-        <v>2524</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+        <v>2048587</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2088447</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2155434</v>
+      </c>
       <c r="F19" t="n">
-        <v>8625</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+        <v>1904758</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2746863</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3027736</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2656553</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>-220890</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-39860</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-66987</v>
+      </c>
+      <c r="O19" t="n">
+        <v>250676</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-842105</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-280873</v>
+      </c>
+      <c r="R19" t="n">
+        <v>371183</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.2160821319541559</v>
+      </c>
       <c r="T19" t="n">
-        <v>0.0002703980129765592</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+        <v>0.2194666617312244</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2275465713441591</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1841533350044026</v>
+      </c>
       <c r="W19" t="n">
-        <v>0.0008714382832131136</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+        <v>0.192449743936979</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.1873317603832376</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2223772889839405</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2332101797754765</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Staff Food</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>24300</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18900</v>
-      </c>
+          <t xml:space="preserve"> Dry Stock</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>133534</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>5400</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>0.002872902787762954</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.002024771174824472</v>
-      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
-        <v>0.01172251716647042</v>
-      </c>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cleaning, Washing &amp; Janitorial Expenses</t>
+          <t xml:space="preserve"> Oil</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122467</v>
+        <v>243070</v>
       </c>
       <c r="C21" t="n">
-        <v>134317</v>
+        <v>242376</v>
       </c>
       <c r="D21" t="n">
-        <v>132800</v>
+        <v>261119</v>
       </c>
       <c r="E21" t="n">
-        <v>154925</v>
+        <v>294305</v>
       </c>
       <c r="F21" t="n">
-        <v>130757</v>
+        <v>244105</v>
       </c>
       <c r="G21" t="n">
-        <v>122120</v>
+        <v>299287</v>
       </c>
       <c r="H21" t="n">
-        <v>134121</v>
+        <v>295960</v>
       </c>
       <c r="I21" t="n">
-        <v>133284</v>
+        <v>248763</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-11850</v>
+        <v>694</v>
       </c>
       <c r="M21" t="n">
-        <v>1517</v>
+        <v>-18743</v>
       </c>
       <c r="N21" t="n">
-        <v>-22125</v>
+        <v>-33186</v>
       </c>
       <c r="O21" t="n">
-        <v>24168</v>
+        <v>50200</v>
       </c>
       <c r="P21" t="n">
-        <v>8637</v>
+        <v>-55182</v>
       </c>
       <c r="Q21" t="n">
-        <v>-12001</v>
+        <v>3327</v>
       </c>
       <c r="R21" t="n">
-        <v>837</v>
+        <v>47197</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01447883891806443</v>
+        <v>0.02873730372928153</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01438948094650257</v>
+        <v>0.02596592265974901</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01446921309207479</v>
+        <v>0.02845019919720992</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01323629274918976</v>
+        <v>0.02514447079264349</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01321120644615619</v>
+        <v>0.02466347155057822</v>
       </c>
       <c r="X21" t="n">
-        <v>0.008328392998850317</v>
+        <v>0.02041090530172711</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.00985074800967293</v>
+        <v>0.02173729230279226</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01170057047655161</v>
+        <v>0.02183809769708598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Staff Uniform</t>
+          <t xml:space="preserve"> Flour</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+        <v>174980</v>
+      </c>
+      <c r="C22" t="n">
+        <v>191462</v>
+      </c>
+      <c r="D22" t="n">
+        <v>197629</v>
+      </c>
       <c r="E22" t="n">
-        <v>18500</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+        <v>199164</v>
+      </c>
+      <c r="F22" t="n">
+        <v>171683</v>
+      </c>
+      <c r="G22" t="n">
+        <v>215243</v>
+      </c>
+      <c r="H22" t="n">
+        <v>200367</v>
+      </c>
+      <c r="I22" t="n">
+        <v>153613</v>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>-16482</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-6167</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1535</v>
+      </c>
+      <c r="O22" t="n">
+        <v>27481</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-43560</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14876</v>
+      </c>
+      <c r="R22" t="n">
+        <v>46754</v>
+      </c>
       <c r="S22" t="n">
-        <v>0.00141871742605578</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+        <v>0.02068726460093669</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.02051146765472186</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.02153265146215097</v>
+      </c>
       <c r="V22" t="n">
-        <v>0.001580580383153207</v>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+        <v>0.01701593034758515</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.01734621898862342</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.01467923595030739</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.01471629965817535</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0134851875139891</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Misc Expenses</t>
+          <t xml:space="preserve"> Rice</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200</v>
+        <v>68823</v>
       </c>
       <c r="C23" t="n">
-        <v>3000</v>
+        <v>70091</v>
       </c>
       <c r="D23" t="n">
-        <v>1000</v>
+        <v>62542</v>
       </c>
       <c r="E23" t="n">
-        <v>346</v>
+        <v>16533</v>
       </c>
       <c r="F23" t="n">
-        <v>514</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+        <v>73056</v>
+      </c>
+      <c r="G23" t="n">
+        <v>105056</v>
+      </c>
+      <c r="H23" t="n">
+        <v>104871</v>
+      </c>
+      <c r="I23" t="n">
+        <v>83432</v>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
+        <v>-1268</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7549</v>
+      </c>
+      <c r="N23" t="n">
+        <v>46009</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-56523</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>185</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21439</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.00813669911778641</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.007508901397599053</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.006814258472925766</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.00141252624187416</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.007381309590541128</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.007164654887710603</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.007702431345743097</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.007324224933222698</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sugar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16969</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27826</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25396</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24150</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10714</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>26580</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25366</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-10857</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1246</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13436</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-10660</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-5206</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1214</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.002006184666895044</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.002981020249241575</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.00276701909402358</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.002063298175845943</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.001082503161315397</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.001457673370106671</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.001952213912042905</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.002226798945921552</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Dry Stock</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>445446</v>
+      </c>
+      <c r="C25" t="n">
+        <v>716298</v>
+      </c>
+      <c r="D25" t="n">
+        <v>612997</v>
+      </c>
+      <c r="E25" t="n">
+        <v>708090</v>
+      </c>
+      <c r="F25" t="n">
+        <v>550789</v>
+      </c>
+      <c r="G25" t="n">
+        <v>759092</v>
+      </c>
+      <c r="H25" t="n">
+        <v>762870</v>
+      </c>
+      <c r="I25" t="n">
+        <v>590607</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>-270852</v>
+      </c>
+      <c r="M25" t="n">
+        <v>103301</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-95093</v>
+      </c>
+      <c r="O25" t="n">
+        <v>157301</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-208303</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-3778</v>
+      </c>
+      <c r="R25" t="n">
+        <v>172263</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.05266350021390357</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.07673754195684761</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.06678903778465792</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.06049692775713265</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.05564969513886002</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.05176888714611271</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.05603030199699666</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.05184747477150083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total 2502 Dry Stock</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>949288</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1248053</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1159683</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1242242</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1050347</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1400052</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1390648</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1101781</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>-298765</v>
+      </c>
+      <c r="M26" t="n">
+        <v>88370</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-82559</v>
+      </c>
+      <c r="O26" t="n">
+        <v>191895</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-349705</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9404</v>
+      </c>
+      <c r="R26" t="n">
+        <v>288867</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1122309523288032</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1337048539181591</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1263531660109682</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1061331533150814</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1061231984299182</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.09548135665596448</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1021385392157503</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.09672178386172016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Food</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>82924</v>
+      </c>
+      <c r="C27" t="n">
+        <v>81510</v>
+      </c>
+      <c r="D27" t="n">
+        <v>105995</v>
+      </c>
+      <c r="E27" t="n">
+        <v>117372</v>
+      </c>
+      <c r="F27" t="n">
+        <v>107006</v>
+      </c>
+      <c r="G27" t="n">
+        <v>267554</v>
+      </c>
+      <c r="H27" t="n">
+        <v>262511</v>
+      </c>
+      <c r="I27" t="n">
+        <v>221170</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1414</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-24485</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-11377</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10366</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-160548</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5043</v>
+      </c>
+      <c r="R27" t="n">
+        <v>41341</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.009803810319854124</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.008732227431743003</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01154867651878364</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01002788544494368</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01081149274591333</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.01824676433356041</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.01928057284666272</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01941579763736772</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>375534</v>
+      </c>
+      <c r="C28" t="n">
+        <v>396872</v>
+      </c>
+      <c r="D28" t="n">
+        <v>334875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>433301</v>
+      </c>
+      <c r="F28" t="n">
+        <v>383984</v>
+      </c>
+      <c r="G28" t="n">
+        <v>526175</v>
+      </c>
+      <c r="H28" t="n">
+        <v>503954</v>
+      </c>
+      <c r="I28" t="n">
+        <v>462482</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-21338</v>
+      </c>
+      <c r="M28" t="n">
+        <v>61997</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-98426</v>
+      </c>
+      <c r="O28" t="n">
+        <v>49317</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-142191</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22221</v>
+      </c>
+      <c r="R28" t="n">
+        <v>41472</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0443980524897026</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.04251719501031418</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.03648627811904025</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0370198411135496</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03879633133232513</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.03588431203873293</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.03701377012150753</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.04059979618811366</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>281167</v>
+      </c>
+      <c r="C29" t="n">
+        <v>329623</v>
+      </c>
+      <c r="D29" t="n">
+        <v>327724</v>
+      </c>
+      <c r="E29" t="n">
+        <v>403361</v>
+      </c>
+      <c r="F29" t="n">
+        <v>362322</v>
+      </c>
+      <c r="G29" t="n">
+        <v>432362</v>
+      </c>
+      <c r="H29" t="n">
+        <v>466465</v>
+      </c>
+      <c r="I29" t="n">
+        <v>413833</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>-48456</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1899</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-75637</v>
+      </c>
+      <c r="O29" t="n">
+        <v>41039</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-70040</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-34103</v>
+      </c>
+      <c r="R29" t="n">
+        <v>52632</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.03324137687765212</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.03531275920418873</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.03570714150140903</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.03446186399616544</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.03660768251018456</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.02948641216646676</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.03426032590222324</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.03632905811667404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages &amp; Soft Drinks</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>261861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>310977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>282847</v>
+      </c>
+      <c r="E30" t="n">
+        <v>337961</v>
+      </c>
+      <c r="F30" t="n">
+        <v>253052</v>
+      </c>
+      <c r="G30" t="n">
+        <v>341478</v>
+      </c>
+      <c r="H30" t="n">
+        <v>321123</v>
+      </c>
+      <c r="I30" t="n">
+        <v>268823</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-49116</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28130</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-55114</v>
+      </c>
+      <c r="O30" t="n">
+        <v>84909</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-88426</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20355</v>
+      </c>
+      <c r="R30" t="n">
+        <v>52300</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.03095889699203271</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0333151992398619</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.03081757165251565</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.02887429874977518</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02556744352969795</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.0232882655131134</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.02358543220756034</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.02359910009617084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Consumables</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>198072</v>
+      </c>
+      <c r="C31" t="n">
+        <v>194508</v>
+      </c>
+      <c r="D31" t="n">
+        <v>155321</v>
+      </c>
+      <c r="E31" t="n">
+        <v>182224</v>
+      </c>
+      <c r="F31" t="n">
+        <v>165021</v>
+      </c>
+      <c r="G31" t="n">
+        <v>335837</v>
+      </c>
+      <c r="H31" t="n">
+        <v>333080</v>
+      </c>
+      <c r="I31" t="n">
+        <v>203024</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>3564</v>
+      </c>
+      <c r="M31" t="n">
+        <v>39187</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-26903</v>
+      </c>
+      <c r="O31" t="n">
+        <v>17203</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-170816</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2757</v>
+      </c>
+      <c r="R31" t="n">
+        <v>130056</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0234173498344767</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.02083778791919357</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0169229867972451</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.01556863133728162</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.01667311500685347</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.02290355813589006</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.02446363468108544</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.01782281909630124</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Disposable Material</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>88366</v>
+      </c>
+      <c r="C32" t="n">
+        <v>181036</v>
+      </c>
+      <c r="D32" t="n">
+        <v>125417</v>
+      </c>
+      <c r="E32" t="n">
+        <v>137657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>124642</v>
+      </c>
+      <c r="G32" t="n">
+        <v>126217</v>
+      </c>
+      <c r="H32" t="n">
+        <v>155125</v>
+      </c>
+      <c r="I32" t="n">
+        <v>93154</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-92670</v>
+      </c>
+      <c r="M32" t="n">
+        <v>55619</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-12240</v>
+      </c>
+      <c r="O32" t="n">
+        <v>13015</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1575</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-28908</v>
+      </c>
+      <c r="R32" t="n">
+        <v>61971</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.01044719867257042</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01939452245531869</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01366479893349958</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.01176097047587681</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.01259336933289842</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.008607801990958813</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.01139342299118343</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.008177687810785155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Total 25 Supplies and Materials</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4064909</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4791166</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4580309</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5009552</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4351132</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6176538</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6460642</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5420820</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>-726257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>210857</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-429243</v>
+      </c>
+      <c r="O33" t="n">
+        <v>658420</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-1825406</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-284104</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1039822</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4805797694692478</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.5132812069100036</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.4990471908776205</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.4279999794370764</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.4396223768247701</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.4212302312179245</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.4745129869499135</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.4758762225826093</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of Labour</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1578434</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1633000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1567716</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1588000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1569734</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1583200</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1690334</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1672133</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>-54566</v>
+      </c>
+      <c r="M35" t="n">
+        <v>65284</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-20284</v>
+      </c>
+      <c r="O35" t="n">
+        <v>18266</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-13466</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-107134</v>
+      </c>
+      <c r="R35" t="n">
+        <v>18201</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.1866126518065774</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1749445147348341</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1708103680109573</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1356736026187726</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.1586001509636236</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.1079717638042894</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.1241494940105016</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.1467911378159995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wages &amp; Allowance</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>2360</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0.00189162323474104</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0.0002016307948238685</v>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>0.0003750913977536582</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Total 26 Cost of Labour</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1594434</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1633000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1567716</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1590360</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1569734</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1588700</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1690334</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1672133</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-38566</v>
+      </c>
+      <c r="M37" t="n">
+        <v>65284</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-22644</v>
+      </c>
+      <c r="O37" t="n">
+        <v>20626</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-18966</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-101634</v>
+      </c>
+      <c r="R37" t="n">
+        <v>18201</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.1885042750413184</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1749445147348341</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1708103680109573</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1358752334135964</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.1586001509636236</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.1083468552020431</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1241494940105016</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.1467911378159995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of Overheads</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Restaurant Rent</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>805983</v>
+      </c>
+      <c r="C39" t="n">
+        <v>908077</v>
+      </c>
+      <c r="D39" t="n">
+        <v>837587</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1092320</v>
+      </c>
+      <c r="F39" t="n">
+        <v>925668</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1366722</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1293643</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1106060</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-102094</v>
+      </c>
+      <c r="M39" t="n">
+        <v>70490</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-254733</v>
+      </c>
+      <c r="O39" t="n">
+        <v>166652</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-441054</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>73079</v>
+      </c>
+      <c r="R39" t="n">
+        <v>187583</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.09528851060039296</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.09728297005931653</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.09125922278728651</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.09332430076356274</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.09352609075308017</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.09320830278557732</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0950138397974763</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.09709742340637041</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilitites</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1194670</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1314699</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1534539</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1406169</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1009609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1386086</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1940185</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1688023</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-120029</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-219840</v>
+      </c>
+      <c r="N40" t="n">
+        <v>128370</v>
+      </c>
+      <c r="O40" t="n">
+        <v>396560</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-376477</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-554099</v>
+      </c>
+      <c r="R40" t="n">
+        <v>252162</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.1412415956155049</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1408446898820402</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1671955707010494</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1201385479350358</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.1020071807161169</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.09452889729941402</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.1425002313369813</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.1481860694272387</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2190</v>
+      </c>
+      <c r="C41" t="n">
+        <v>28040</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52150</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41730</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42820</v>
+      </c>
+      <c r="G41" t="n">
+        <v>46342</v>
+      </c>
+      <c r="H41" t="n">
+        <v>49300</v>
+      </c>
+      <c r="I41" t="n">
+        <v>33920</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-25850</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-24110</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10420</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1090</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-3522</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-2958</v>
+      </c>
+      <c r="R41" t="n">
+        <v>15380</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0002589159302551798</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.003003946229739588</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.005681998966503768</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.003565276723728828</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.004326375337644699</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.003160451919036369</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.003620923471170625</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.002977726888183358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>14150</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3380</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2280</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>2280</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1100</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-1010</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>0.001541712087747427</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>0.0005718655864331853</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0002305107135286118</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0001674585297011973</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.0002888184393314637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laundry</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50680</v>
+      </c>
+      <c r="C43" t="n">
+        <v>51560</v>
+      </c>
+      <c r="D43" t="n">
+        <v>51920</v>
+      </c>
+      <c r="E43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>52220</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>55400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>-880</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-360</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1920</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-2220</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2220</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-5400</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.005991716596042243</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.005523661469521153</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.005656939335395506</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.004271838873387045</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.005276116770943628</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.003409921797760529</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.004068948484844881</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.004389337983760845</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Direct Cost</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>37615</v>
+      </c>
+      <c r="E44" t="n">
+        <v>167500</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>47000</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-31615</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-129885</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>0.001773396782569725</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0006427844999442769</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.004098339235379468</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0143106602258466</v>
+      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
+        <v>0.003451996006998365</v>
+      </c>
+      <c r="Z44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Total 27 Cost of Overheads</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2068523</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2308376</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2527961</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2757719</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2035977</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2852530</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3387808</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2881293</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-239853</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-219585</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-229758</v>
+      </c>
+      <c r="O45" t="n">
+        <v>721742</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-816553</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-535278</v>
+      </c>
+      <c r="R45" t="n">
+        <v>506515</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.244554135524765</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2472980521405617</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.2754337831133621</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.235610624521561</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.2057076291642186</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.1945380845153168</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.2488233976271727</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.2529393761448848</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Total Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7727866</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8732542</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8675986</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9357631</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7956843</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10617768</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11538784</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9974246</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>-1004676</v>
+      </c>
+      <c r="M46" t="n">
+        <v>56556</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-681645</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1400788</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-2660925</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-921016</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1564538</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9136381800353311</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.9355237737853993</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.9452913420019398</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.7994858373722338</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.8039301569526123</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.7241151709352843</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.8474858785875877</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.8756067365434935</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>730477.9800000004</v>
+      </c>
+      <c r="C47" t="n">
+        <v>601846.120000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>502121.9700000007</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2346930.310000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1940587.68</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4045324.870000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2076527.23</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1416993.449999999</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>128631.8599999994</v>
+      </c>
+      <c r="M47" t="n">
+        <v>99724.15000000037</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1844808.34</v>
+      </c>
+      <c r="O47" t="n">
+        <v>406342.6300000008</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-2104737.190000001</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1968797.640000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>659533.7800000012</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.08636181996466882</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.06447622621460065</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0547086579980602</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2005141626277662</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.1960698430473877</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.2758848290647156</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1525141214124123</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.1243932634565064</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.0003749576249674949</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Others</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7732</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>11990</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20190</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>24968</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>-980</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-7220</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9700</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.003866004986002</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0008283349589281915</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>0.001211425509069592</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0008845337143390812</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.001482889348538234</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.0009208831089930254</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11232</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11990</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20190</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>21468</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11232</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-11990</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-980</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-7220</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9700</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.003866004986002</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.001203292583895686</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.001211425509069592</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0008845337143390812</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.001482889348538234</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.0009208831089930254</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries - Non Operation Staff</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C55" t="n">
+        <v>169500</v>
+      </c>
+      <c r="D55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="E55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="H55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>149500</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.02003938364303789</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.01815866212342582</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.01792308398830048</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.01405434989344338</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.01662047508273127</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.01121864271463214</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.01208198602449428</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.001316801395128254</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>122500</v>
+      </c>
+      <c r="C56" t="n">
+        <v>121666</v>
+      </c>
+      <c r="D56" t="n">
+        <v>127500</v>
+      </c>
+      <c r="E56" t="n">
+        <v>139500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>126083</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>105000</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>834</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-5834</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>13417</v>
+      </c>
+      <c r="P56" t="n">
+        <v>26083</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.01448274039098608</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.01303416982837007</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.01389175202740614</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01191843045674986</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0127389626738967</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.006819843595521059</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.00734467235531567</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.009217609765897776</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Admin &amp; HR</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="H57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.006443341643336666</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.005838625874493849</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.005938043023479489</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.004656304371991879</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.005506479586679965</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.003716814759558977</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.00400284643364704</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.004784378402299322</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total 2801 Salaries - Non Operation Staff</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>346500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>345666</v>
+      </c>
+      <c r="D58" t="n">
+        <v>346500</v>
+      </c>
+      <c r="E58" t="n">
+        <v>358500</v>
+      </c>
+      <c r="F58" t="n">
+        <v>345083</v>
+      </c>
+      <c r="G58" t="n">
+        <v>319000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>319000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>174500</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>834</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-834</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>13417</v>
+      </c>
+      <c r="P58" t="n">
+        <v>26083</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>144500</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.04096546567736064</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.03703145782628974</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.03775287903918611</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.03062908472218511</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.03486591734330793</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.02175530106971217</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.02342950481345699</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.01531878956332535</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Benefits (Direct &amp; Indirect)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>306849</v>
+      </c>
+      <c r="C59" t="n">
+        <v>401112</v>
+      </c>
+      <c r="D59" t="n">
+        <v>391247</v>
+      </c>
+      <c r="E59" t="n">
+        <v>332457</v>
+      </c>
+      <c r="F59" t="n">
+        <v>251548</v>
+      </c>
+      <c r="G59" t="n">
+        <v>281790</v>
+      </c>
+      <c r="H59" t="n">
+        <v>293731</v>
+      </c>
+      <c r="I59" t="n">
+        <v>462852</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>-94263</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9865</v>
+      </c>
+      <c r="N59" t="n">
+        <v>58790</v>
+      </c>
+      <c r="O59" t="n">
+        <v>80909</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-30242</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-11941</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-169121</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.03627766862231583</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0429714293902748</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.04262828474875743</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.02840405472659274</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.02541548490037012</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.01921763726781879</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.02157357955599227</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0406322772891935</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total 28 Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>653349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>746778</v>
+      </c>
+      <c r="D60" t="n">
+        <v>737747</v>
+      </c>
+      <c r="E60" t="n">
+        <v>690957</v>
+      </c>
+      <c r="F60" t="n">
+        <v>596631</v>
+      </c>
+      <c r="G60" t="n">
+        <v>600790</v>
+      </c>
+      <c r="H60" t="n">
+        <v>612731</v>
+      </c>
+      <c r="I60" t="n">
+        <v>637352</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>-93429</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9031</v>
+      </c>
+      <c r="N60" t="n">
+        <v>46790</v>
+      </c>
+      <c r="O60" t="n">
+        <v>94326</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-4159</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-11941</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-24621</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.07724313429967647</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.08000288721656454</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.08038116378794354</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.05903313944877785</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.06028140224367805</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.04097293833753097</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.04500308436944926</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.05595106685251885</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toll Tax</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>6.537295071720538e-06</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Total 29 Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>60</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-60</v>
+      </c>
+      <c r="N63" t="n">
+        <v>60</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6.537295071720538e-06</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal Services</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>945</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1495</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1420</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1495</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>-235</v>
+      </c>
+      <c r="M65" t="n">
+        <v>105</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-220</v>
+      </c>
+      <c r="O65" t="n">
+        <v>165</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-365</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>75</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-75</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0001117239973018927</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0001264142849890411</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0001171265367016597</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0001106406268207245</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0001141710446412543</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0001019566617530398</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0001042943474454825</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.0001312412057144493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Registration Fee</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>0.01010363226913755</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>0.002203401706594701</v>
+      </c>
+      <c r="Z66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dues &amp; Subscriptions</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>10162</v>
+      </c>
+      <c r="G67" t="n">
+        <v>49253</v>
+      </c>
+      <c r="H67" t="n">
+        <v>43422</v>
+      </c>
+      <c r="I67" t="n">
+        <v>38422</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>-39091</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5831</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="n">
+        <v>0.001026731111189758</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.003358977566101987</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.00318920363012517</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.003372942880241184</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Total 30 Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>945</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F68" t="n">
+        <v>111292</v>
+      </c>
+      <c r="G68" t="n">
+        <v>50748</v>
+      </c>
+      <c r="H68" t="n">
+        <v>74842</v>
+      </c>
+      <c r="I68" t="n">
+        <v>39917</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>-235</v>
+      </c>
+      <c r="M68" t="n">
+        <v>105</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-220</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-109997</v>
+      </c>
+      <c r="P68" t="n">
+        <v>60544</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-24094</v>
+      </c>
+      <c r="R68" t="n">
+        <v>34925</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0001117239973018927</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0001264142849890411</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0001171265367016597</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0001106406268207245</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.01124453442496856</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.003460934227855027</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.005496899684165354</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.003504184085955633</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Communication Charges</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mobile Charges</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>14771</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26706</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21140</v>
+      </c>
+      <c r="E70" t="n">
+        <v>22474</v>
+      </c>
+      <c r="F70" t="n">
+        <v>32805</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28341</v>
+      </c>
+      <c r="H70" t="n">
+        <v>28081</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>-11935</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5566</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1334</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-10331</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4464</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>260</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3081</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.001746322925022494</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.002861033809251977</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.00230330696360287</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.001920106136810009</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.003314496565890573</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.001932811873406623</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.002062457444096194</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.002194668991880423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Postage &amp; Courier</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1690</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="n">
+        <v>0.0001152553567643059</v>
+      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Telephone Bill</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5640</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5680</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8160</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7760</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7490</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7620</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8080</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8330</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="N72" t="n">
+        <v>400</v>
+      </c>
+      <c r="O72" t="n">
+        <v>270</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-130</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-460</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-250</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0006667971902462165</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.0006085026599472489</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0008890721297539932</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0006629893931496694</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0007567620569584025</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0005196720819787046</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0005934495263095062</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.0007312637080945568</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Total 31 Communication Charges</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>20411</v>
+      </c>
+      <c r="C73" t="n">
+        <v>32386</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29300</v>
+      </c>
+      <c r="E73" t="n">
+        <v>30234</v>
+      </c>
+      <c r="F73" t="n">
+        <v>40295</v>
+      </c>
+      <c r="G73" t="n">
+        <v>37651</v>
+      </c>
+      <c r="H73" t="n">
+        <v>36161</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33330</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>-11975</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3086</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-934</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-10061</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2644</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1490</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2831</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.00241312011526871</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.003469536469199226</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.003192379093356863</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.002583095529959679</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.004071258622848976</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.002567739312149634</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.002655906970405699</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.002925932699974979</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equipment Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>27450</v>
+      </c>
+      <c r="C75" t="n">
+        <v>26351</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5830</v>
+      </c>
+      <c r="E75" t="n">
+        <v>43640</v>
+      </c>
+      <c r="F75" t="n">
+        <v>88360</v>
+      </c>
+      <c r="G75" t="n">
+        <v>68010</v>
+      </c>
+      <c r="H75" t="n">
+        <v>74030</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21370</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1099</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20521</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-37810</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-44720</v>
+      </c>
+      <c r="P75" t="n">
+        <v>20350</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-6020</v>
+      </c>
+      <c r="R75" t="n">
+        <v>52660</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.003245316112102596</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.002823002393005274</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0006352071711355123</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.003728460968692213</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.008927569473009938</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.004638175629313871</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.005437260944640191</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.001876003054259385</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vehicle Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C76" t="n">
+        <v>862</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11415</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5910</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1340</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9100</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>676</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-4998</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2560</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-8115</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5505</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4570</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-7760</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.0001818322834394824</v>
+      </c>
+      <c r="T76" t="n">
+        <v>9.234670649199445e-05</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0006384758186713726</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.000281941365643545</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.001153329623522051</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0004030527564952946</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9.841860956122999e-05</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.0007988595130444738</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Computer &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C77" t="n">
+        <v>850</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>5200</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-5050</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>0.0005142850669452202</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9.10611374921059e-05</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.000642834015385853</v>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="n">
+        <v>0.000354631866967095</v>
+      </c>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Building Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20070</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E78" t="n">
+        <v>85580</v>
+      </c>
+      <c r="F78" t="n">
+        <v>56260</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>9930</v>
+      </c>
+      <c r="M78" t="n">
+        <v>14210</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-79720</v>
+      </c>
+      <c r="O78" t="n">
+        <v>29320</v>
+      </c>
+      <c r="P78" t="n">
+        <v>55160</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>0.003546793565139449</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.002150114152313606</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0006384758186713726</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.007311679415689267</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.005684303514616786</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7.501827955073164e-05</v>
+      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Total 32 Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>63338</v>
+      </c>
+      <c r="C79" t="n">
+        <v>48133</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23450</v>
+      </c>
+      <c r="E79" t="n">
+        <v>132520</v>
+      </c>
+      <c r="F79" t="n">
+        <v>156035</v>
+      </c>
+      <c r="G79" t="n">
+        <v>80220</v>
+      </c>
+      <c r="H79" t="n">
+        <v>75370</v>
+      </c>
+      <c r="I79" t="n">
+        <v>30470</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>15205</v>
+      </c>
+      <c r="M79" t="n">
+        <v>24683</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-109070</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-23515</v>
+      </c>
+      <c r="P79" t="n">
+        <v>75815</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4850</v>
+      </c>
+      <c r="R79" t="n">
+        <v>44900</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.007488227027626748</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.00515652438930298</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.00255499282386411</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.01132208175002502</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.01576520261114878</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.005470878532326993</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.005535679554201421</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.002674862567303859</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel Charges</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>700</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>8.275851651992049e-05</v>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Transportation &amp; Carriage</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>320</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>350</v>
+      </c>
+      <c r="I82" t="n">
+        <v>650</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>-300</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.783246469482079e-05</v>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>0.0002397008192964197</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="n">
+        <v>0.0002525908067284387</v>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="n">
+        <v>2.570635324360485e-05</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>5.706139378889099e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Total 33 Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>350</v>
+      </c>
+      <c r="I83" t="n">
+        <v>650</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-2200</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-350</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-300</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0001205909812147413</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0002397008192964197</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.0002525908067284387</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.570635324360485e-05</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>5.706139378889099e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>6100</v>
+      </c>
+      <c r="I85" t="n">
+        <v>500</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>5600</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="n">
+        <v>0.0004480250136742559</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.389337983760846e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Printing</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>48825</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6550</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>42275</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>0.003213922499721385</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.003268647535860269</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="n">
+        <v>0.004933098455406409</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.0004466997555066293</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stationary Expense</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>14710</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17881</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13280</v>
+      </c>
+      <c r="E87" t="n">
+        <v>19790</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16030</v>
+      </c>
+      <c r="G87" t="n">
+        <v>21922</v>
+      </c>
+      <c r="H87" t="n">
+        <v>18107</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12380</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>-3171</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-6510</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3760</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-5892</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3815</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5727</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.001739111111440043</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.001915604940583936</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.001446921309207479</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.001690793826086592</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.001619612252742749</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.001495046113010126</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.001329899823377008</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.001086800084779185</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Total 34 Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>14710</v>
+      </c>
+      <c r="C88" t="n">
+        <v>47881</v>
+      </c>
+      <c r="D88" t="n">
+        <v>43280</v>
+      </c>
+      <c r="E88" t="n">
+        <v>19790</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64855</v>
+      </c>
+      <c r="G88" t="n">
+        <v>28472</v>
+      </c>
+      <c r="H88" t="n">
+        <v>24207</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12880</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>-33171</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N88" t="n">
+        <v>23490</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-45065</v>
+      </c>
+      <c r="P88" t="n">
+        <v>36383</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4265</v>
+      </c>
+      <c r="R88" t="n">
+        <v>11327</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.001739111111440043</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.005129527440305321</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.004715568845067748</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.001690793826086592</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.006552710708149158</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.001941745868516756</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.001777924837051264</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.001130693464616794</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agency Fee</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="I90" t="n">
+        <v>130000</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-45000</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.01004924843456177</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.00910611374921059</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.009261168018270764</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.007262126084757977</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.008588087428766917</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.005796867056192899</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.00624297150201832</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.0114122787577782</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Spend</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>86083</v>
+      </c>
+      <c r="D91" t="n">
+        <v>22492</v>
+      </c>
+      <c r="E91" t="n">
+        <v>84028</v>
+      </c>
+      <c r="F91" t="n">
+        <v>65325</v>
+      </c>
+      <c r="G91" t="n">
+        <v>256228</v>
+      </c>
+      <c r="H91" t="n">
+        <v>186283</v>
+      </c>
+      <c r="I91" t="n">
+        <v>38465</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>-36083</v>
+      </c>
+      <c r="M91" t="n">
+        <v>63591</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-61536</v>
+      </c>
+      <c r="O91" t="n">
+        <v>18703</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-190903</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>69945</v>
+      </c>
+      <c r="R91" t="n">
+        <v>147818</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.005911322608565749</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.009222136351450532</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.002450614012552306</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.007179081537059332</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.006600197779814104</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.0174743488479317</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.01368187600365269</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.003376717710907219</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Production</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>2524</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>8625</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>0.0002703980129765592</v>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="n">
+        <v>0.0008714382832131136</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Total 35 Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>135000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>173607</v>
+      </c>
+      <c r="D93" t="n">
+        <v>107492</v>
+      </c>
+      <c r="E93" t="n">
+        <v>169028</v>
+      </c>
+      <c r="F93" t="n">
+        <v>158950</v>
+      </c>
+      <c r="G93" t="n">
+        <v>341228</v>
+      </c>
+      <c r="H93" t="n">
+        <v>271283</v>
+      </c>
+      <c r="I93" t="n">
+        <v>168465</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>-38607</v>
+      </c>
+      <c r="M93" t="n">
+        <v>66115</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-61536</v>
+      </c>
+      <c r="O93" t="n">
+        <v>10078</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-182278</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>69945</v>
+      </c>
+      <c r="R93" t="n">
+        <v>102818</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.01596057104312752</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.01859864811363768</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.01171178203082307</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.01444120762181731</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.01605972349179413</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.0232712159041246</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.01992484750567101</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.01478899646868542</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Entertainment</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="n">
+        <v>0.0001795026694597236</v>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Food</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18900</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>133534</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>0.002872902787762954</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.002024771174824472</v>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="n">
+        <v>0.01172251716647042</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Total 36 Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18900</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>133534</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M97" t="n">
+        <v>18900</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-2101</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-133534</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.002872902787762954</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.002024771174824472</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.0001795026694597236</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.01172251716647042</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cleaning, Washing &amp; Janitorial Expenses</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>122467</v>
+      </c>
+      <c r="C98" t="n">
+        <v>134317</v>
+      </c>
+      <c r="D98" t="n">
+        <v>132800</v>
+      </c>
+      <c r="E98" t="n">
+        <v>154925</v>
+      </c>
+      <c r="F98" t="n">
+        <v>130757</v>
+      </c>
+      <c r="G98" t="n">
+        <v>122120</v>
+      </c>
+      <c r="H98" t="n">
+        <v>134121</v>
+      </c>
+      <c r="I98" t="n">
+        <v>133284</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>-11850</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1517</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-22125</v>
+      </c>
+      <c r="O98" t="n">
+        <v>24168</v>
+      </c>
+      <c r="P98" t="n">
+        <v>8637</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-12001</v>
+      </c>
+      <c r="R98" t="n">
+        <v>837</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.01447883891806443</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.01438948094650257</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.01446921309207479</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.01323629274918976</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.01321120644615619</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.008328392998850317</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.00985074800967293</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.01170057047655161</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Uniform</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>18500</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>0.00141871742605578</v>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="n">
+        <v>0.001580580383153207</v>
+      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Misc Expenses</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>200</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>346</v>
+      </c>
+      <c r="F100" t="n">
+        <v>514</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
         <v>-2800</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M100" t="n">
         <v>2000</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N100" t="n">
         <v>654</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O100" t="n">
         <v>-168</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
         <v>2.3645290434263e-05</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T100" t="n">
         <v>0.0003213922499721385</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U100" t="n">
         <v>0.000108954917862009</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V100" t="n">
         <v>2.956112500383835e-05</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W100" t="n">
         <v>5.193266986336701e-05</v>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1047740</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1206182</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1078404</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1219696</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1261829</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1261229</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1229065</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1189882</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>-158442</v>
+      </c>
+      <c r="M101" t="n">
+        <v>127778</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-141292</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-42133</v>
+      </c>
+      <c r="P101" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>32164</v>
+      </c>
+      <c r="R101" t="n">
+        <v>39183</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.1238705829979736</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.129219182285298</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1174974192420619</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.1042068957302937</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.1274905620253357</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.08601384518135428</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.09027079728386055</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.1044558851758664</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="n">
+        <v>0.0003749576249674949</v>
+      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bank Service Charges</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>111937.49</v>
+      </c>
+      <c r="C104" t="n">
+        <v>119082.96</v>
+      </c>
+      <c r="D104" t="n">
+        <v>104418.08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>139645.96</v>
+      </c>
+      <c r="F104" t="n">
+        <v>146334</v>
+      </c>
+      <c r="G104" t="n">
+        <v>171068.29</v>
+      </c>
+      <c r="H104" t="n">
+        <v>221990.84</v>
+      </c>
+      <c r="I104" t="n">
+        <v>171802.61</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>-7145.470000000001</v>
+      </c>
+      <c r="M104" t="n">
+        <v>14664.88</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-35227.87999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-6688.040000000008</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-24734.29000000001</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-50922.54999999999</v>
+      </c>
+      <c r="R104" t="n">
+        <v>50188.23000000001</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.01323397230766205</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.01275744681591406</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.01137686332970868</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.01193090080878905</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.01478504924471974</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.01166658981953239</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.01630449985681304</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.01508199443564502</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Total Other Expenses</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>111937.49</v>
+      </c>
+      <c r="C105" t="n">
+        <v>122582.96</v>
+      </c>
+      <c r="D105" t="n">
+        <v>104418.08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>139645.96</v>
+      </c>
+      <c r="F105" t="n">
+        <v>146334</v>
+      </c>
+      <c r="G105" t="n">
+        <v>171068.29</v>
+      </c>
+      <c r="H105" t="n">
+        <v>221990.84</v>
+      </c>
+      <c r="I105" t="n">
+        <v>171802.61</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>-10645.47</v>
+      </c>
+      <c r="M105" t="n">
+        <v>18164.88</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-35227.87999999999</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-6688.040000000008</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-24734.29000000001</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-50922.54999999999</v>
+      </c>
+      <c r="R105" t="n">
+        <v>50188.23000000001</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.01323397230766205</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.01313240444088155</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.01137686332970868</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.01193090080878905</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.01478504924471974</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.01166658981953239</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.01630449985681304</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.01508199443564502</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Net Earnings</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-396499.5099999995</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-715686.8399999989</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-680700.1099999993</v>
+      </c>
+      <c r="E106" t="n">
+        <v>987588.3500000006</v>
+      </c>
+      <c r="F106" t="n">
+        <v>544414.6799999997</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2625997.580000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>645661.3900000005</v>
+      </c>
+      <c r="I106" t="n">
+        <v>65798.83999999927</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>319187.3299999994</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-34986.72999999963</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-1668288.46</v>
+      </c>
+      <c r="O106" t="n">
+        <v>443173.6700000009</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-2081582.900000001</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1980336.19</v>
+      </c>
+      <c r="R106" t="n">
+        <v>579862.5500000012</v>
+      </c>
+      <c r="S106" t="n">
+        <v>-0.04687673035496477</v>
+      </c>
+      <c r="T106" t="n">
+        <v>-0.07667206792768318</v>
+      </c>
+      <c r="U106" t="n">
+        <v>-0.0741656245737104</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.08437636608868347</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.0550056572864019</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.179088927778168</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.04742171362027693</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.005776266953987985</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Saturday, Mar 16, 2024 02:38:52 AM GMT+5 - Accrual Basis</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploaded_files/cleaned_Rest 8 months.xlsx
+++ b/uploaded_files/cleaned_Rest 8 months.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,114 +568,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Food &amp; Menu Sale</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7675911.66</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8479431.91</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7867590.62</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10225831.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8593215.15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12931382.07</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12312355.41</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10387147.68</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>-803520.25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>611841.29</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2358240.579999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1632616.049999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-4338166.92</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>619026.6600000001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1925207.73</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.907495802742229</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.9084079000134825</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.8572126897740123</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.8736620646570818</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.8682268588518167</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.8819000319132535</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.9043021640864833</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.9118540370951469</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Beverages</t>
+          <t xml:space="preserve"> Food &amp; Menu Sale</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383619</v>
+        <v>7675911.66</v>
       </c>
       <c r="C3" t="n">
-        <v>609055</v>
+        <v>8479431.91</v>
       </c>
       <c r="D3" t="n">
-        <v>508930</v>
+        <v>7867590.62</v>
       </c>
       <c r="E3" t="n">
-        <v>629435</v>
+        <v>10225831.2</v>
       </c>
       <c r="F3" t="n">
-        <v>487730</v>
+        <v>8593215.15</v>
       </c>
       <c r="G3" t="n">
-        <v>546619.99</v>
+        <v>12931382.07</v>
       </c>
       <c r="H3" t="n">
-        <v>461156</v>
+        <v>12312355.41</v>
       </c>
       <c r="I3" t="n">
-        <v>480384</v>
+        <v>10387147.68</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -684,244 +638,180 @@
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-225436</v>
+        <v>-803520.25</v>
       </c>
       <c r="M3" t="n">
-        <v>100125</v>
+        <v>611841.29</v>
       </c>
       <c r="N3" t="n">
-        <v>-120505</v>
+        <v>-2358240.579999999</v>
       </c>
       <c r="O3" t="n">
-        <v>141705</v>
+        <v>1632616.049999999</v>
       </c>
       <c r="P3" t="n">
-        <v>-58889.98999999999</v>
+        <v>-4338166.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>85463.98999999999</v>
+        <v>619026.6600000001</v>
       </c>
       <c r="R3" t="n">
-        <v>-19228</v>
+        <v>1925207.73</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04535391335550768</v>
+        <v>0.907495802742229</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06524851893559359</v>
+        <v>0.9084079000134825</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05545042634751222</v>
+        <v>0.8572126897740123</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0537768980254075</v>
+        <v>0.8736620646570818</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04927844566626458</v>
+        <v>0.8682268588518167</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03727862837985285</v>
+        <v>0.8819000319132535</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03387039724687953</v>
+        <v>0.9043021640864833</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0421713547598194</v>
+        <v>0.9118540370951469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dawat Box</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>371700</v>
-      </c>
-      <c r="C4" t="n">
-        <v>187200</v>
-      </c>
-      <c r="D4" t="n">
-        <v>648900</v>
-      </c>
-      <c r="E4" t="n">
-        <v>377200</v>
-      </c>
-      <c r="F4" t="n">
-        <v>402590</v>
-      </c>
-      <c r="G4" t="n">
-        <v>711686</v>
-      </c>
-      <c r="H4" t="n">
-        <v>371027.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72575</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>184500</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-461700</v>
-      </c>
-      <c r="N4" t="n">
-        <v>271700</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-25390</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-309096</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>340658.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>298452.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.04394477227207778</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.02005487639826144</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.07070084620065763</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.03222675246083187</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.04067621315232086</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.04853587209122</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.02725075422311885</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.006371124083428868</v>
-      </c>
+          <t xml:space="preserve"> Beverages</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Food Panda</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2613.32</v>
-      </c>
-      <c r="C5" t="n">
-        <v>46701.21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27451.93</v>
-      </c>
+          <t xml:space="preserve"> Bar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>40537.63</v>
+        <v>69140</v>
       </c>
       <c r="F5" t="n">
-        <v>65700.95</v>
+        <v>171651</v>
       </c>
       <c r="G5" t="n">
-        <v>42908</v>
+        <v>186775</v>
       </c>
       <c r="H5" t="n">
-        <v>30080.17</v>
+        <v>156284.75</v>
       </c>
       <c r="I5" t="n">
-        <v>49402</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>-44087.89</v>
-      </c>
-      <c r="M5" t="n">
-        <v>19249.28</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-13085.7</v>
-      </c>
+        <v>193411.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-25163.32</v>
+        <v>-102511</v>
       </c>
       <c r="P5" t="n">
-        <v>22792.95</v>
+        <v>-15124</v>
       </c>
       <c r="Q5" t="n">
-        <v>12827.83</v>
+        <v>30490.25</v>
       </c>
       <c r="R5" t="n">
-        <v>-19321.83</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0003089635519883409</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.005003135652773777</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.00299102277830362</v>
-      </c>
+        <v>-37126.75</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>0.003463404473379617</v>
+        <v>0.005907098794119606</v>
       </c>
       <c r="W5" t="n">
-        <v>0.006638182385329927</v>
+        <v>0.0173429858262973</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002926258489966176</v>
+        <v>0.01273776287553446</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002209289930421957</v>
+        <v>0.01147860282882421</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004336841501475066</v>
+        <v>0.01697896886892322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Services</t>
+          <t xml:space="preserve"> Other Beverages</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24500</v>
+        <v>383619</v>
       </c>
       <c r="C6" t="n">
-        <v>12000</v>
+        <v>609055</v>
       </c>
       <c r="D6" t="n">
-        <v>125235.42</v>
+        <v>508930</v>
       </c>
       <c r="E6" t="n">
-        <v>362417.48</v>
+        <v>629435</v>
       </c>
       <c r="F6" t="n">
-        <v>176543.58</v>
+        <v>487730</v>
       </c>
       <c r="G6" t="n">
-        <v>243721.81</v>
+        <v>546619.99</v>
       </c>
       <c r="H6" t="n">
-        <v>284407.4</v>
+        <v>461156</v>
       </c>
       <c r="I6" t="n">
-        <v>208319.27</v>
+        <v>480384</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -930,50 +820,6772 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
+        <v>-225436</v>
+      </c>
+      <c r="M6" t="n">
+        <v>100125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-120505</v>
+      </c>
+      <c r="O6" t="n">
+        <v>141705</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-58889.98999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>85463.98999999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-19228</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.04535391335550768</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.06524851893559359</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05545042634751222</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0537768980254075</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.04927844566626458</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.03727862837985285</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.03387039724687953</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0421713547598194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total 20 Beverages</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>383619</v>
+      </c>
+      <c r="C7" t="n">
+        <v>609055</v>
+      </c>
+      <c r="D7" t="n">
+        <v>508930</v>
+      </c>
+      <c r="E7" t="n">
+        <v>698575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>659381</v>
+      </c>
+      <c r="G7" t="n">
+        <v>733394.99</v>
+      </c>
+      <c r="H7" t="n">
+        <v>617440.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>673795.5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>-225436</v>
+      </c>
+      <c r="M7" t="n">
+        <v>100125</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-189645</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39194</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-74013.98999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>115954.24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-56354.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.04535391335550768</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.06524851893559359</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.05545042634751222</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0596839968195271</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.06662143149256186</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0500163912553873</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.04534900007570374</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.05915032362874262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dawat Box</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>371700</v>
+      </c>
+      <c r="C8" t="n">
+        <v>187200</v>
+      </c>
+      <c r="D8" t="n">
+        <v>648900</v>
+      </c>
+      <c r="E8" t="n">
+        <v>377200</v>
+      </c>
+      <c r="F8" t="n">
+        <v>402590</v>
+      </c>
+      <c r="G8" t="n">
+        <v>711686</v>
+      </c>
+      <c r="H8" t="n">
+        <v>371027.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72575</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>184500</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-461700</v>
+      </c>
+      <c r="N8" t="n">
+        <v>271700</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-25390</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-309096</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>340658.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>298452.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.04394477227207778</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02005487639826144</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.07070084620065763</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03222675246083187</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04067621315232086</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.04853587209122</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.02725075422311885</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.006371124083428868</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food Panda</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2613.32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46701.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27451.93</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40537.63</v>
+      </c>
+      <c r="F9" t="n">
+        <v>65700.95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42908</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30080.17</v>
+      </c>
+      <c r="I9" t="n">
+        <v>49402</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>-44087.89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19249.28</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-13085.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-25163.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>22792.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12827.83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-19321.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0003089635519883409</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.005003135652773777</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00299102277830362</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.003463404473379617</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.006638182385329927</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.002926258489966176</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.002209289930421957</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.004336841501475066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Services</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24500</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125235.42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>362417.48</v>
+      </c>
+      <c r="F10" t="n">
+        <v>176543.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>243721.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>284407.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>208319.27</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>12500</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M10" t="n">
         <v>-113235.42</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N10" t="n">
         <v>-237182.06</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O10" t="n">
         <v>185873.9</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P10" t="n">
         <v>-67178.23000000001</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q10" t="n">
         <v>-40685.59000000003</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R10" t="n">
         <v>76088.13000000003</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S10" t="n">
         <v>0.002896548078197217</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T10" t="n">
         <v>0.001285568999888554</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U10" t="n">
         <v>0.0136450148995142</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V10" t="n">
         <v>0.03096378158917944</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W10" t="n">
         <v>0.01783731411797066</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X10" t="n">
         <v>0.016621446250173</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y10" t="n">
         <v>0.02088879168427206</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z10" t="n">
         <v>0.01828767369120662</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Income</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8458343.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9334388.120000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9178107.970000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11704561.31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9897430.68</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14663092.87</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13615311.23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11391239.45</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>-876044.1400000006</v>
+      </c>
+      <c r="M11" t="n">
+        <v>156280.1500000004</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-2526453.34</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1807130.630000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-4765662.190000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1047781.640000001</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2224071.780000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Supplies and Materials</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Meat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mutton</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>620143</v>
+      </c>
+      <c r="C15" t="n">
+        <v>697655</v>
+      </c>
+      <c r="D15" t="n">
+        <v>726473</v>
+      </c>
+      <c r="E15" t="n">
+        <v>831917</v>
+      </c>
+      <c r="F15" t="n">
+        <v>643501</v>
+      </c>
+      <c r="G15" t="n">
+        <v>927674</v>
+      </c>
+      <c r="H15" t="n">
+        <v>902742</v>
+      </c>
+      <c r="I15" t="n">
+        <v>762178</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>-77512</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-28818</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-105444</v>
+      </c>
+      <c r="O15" t="n">
+        <v>188416</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-284173</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>24932</v>
+      </c>
+      <c r="R15" t="n">
+        <v>140564</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.07331730672887578</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.07474030338477075</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.07915280604396724</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.07107630760063061</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.06501697468822283</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.06326591587631403</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.06630344211382379</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.06690913691573748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chicken</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1014477</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1167824</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1127693</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1155256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1089110</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1495680</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1831514</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1686495</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-153347</v>
+      </c>
+      <c r="M16" t="n">
+        <v>40131</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-27563</v>
+      </c>
+      <c r="O16" t="n">
+        <v>66146</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-406570</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-335834</v>
+      </c>
+      <c r="R16" t="n">
+        <v>145019</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.1199380165193991</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1251098609771542</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1228676981885625</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.09870134979027248</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.110039669406404</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1020030366894894</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.1345187024417362</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.1480519312584549</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beef</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>191591</v>
+      </c>
+      <c r="C17" t="n">
+        <v>183108</v>
+      </c>
+      <c r="D17" t="n">
+        <v>222281</v>
+      </c>
+      <c r="E17" t="n">
+        <v>144761</v>
+      </c>
+      <c r="F17" t="n">
+        <v>123246</v>
+      </c>
+      <c r="G17" t="n">
+        <v>186171</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160691</v>
+      </c>
+      <c r="I17" t="n">
+        <v>130090</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>8483</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-39173</v>
+      </c>
+      <c r="N17" t="n">
+        <v>77520</v>
+      </c>
+      <c r="O17" t="n">
+        <v>21515</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-62925</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>25480</v>
+      </c>
+      <c r="R17" t="n">
+        <v>30601</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02265112419795441</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.01961649736929945</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.02421860809728522</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.01236791334300764</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01245232262642126</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.01269657102021751</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0118022274544803</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.01142017956614897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fish &amp; Prawns</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>48901</v>
+      </c>
+      <c r="G18" t="n">
+        <v>137338</v>
+      </c>
+      <c r="H18" t="n">
+        <v>132789</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77790</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1486</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-11500</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-25401</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-88437</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4549</v>
+      </c>
+      <c r="R18" t="n">
+        <v>54999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.000175684507926574</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.001307459014344108</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.002007764270491911</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.004940777215930953</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.009366236797216711</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.009752916973900126</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.006828932035135123</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total 2501 Meat</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1827697</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2048587</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2088447</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2155434</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1904758</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2746863</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3027736</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2656553</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>-220890</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-39860</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-66987</v>
+      </c>
+      <c r="O19" t="n">
+        <v>250676</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-842105</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-280873</v>
+      </c>
+      <c r="R19" t="n">
+        <v>371183</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.2160821319541559</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2194666617312244</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2275465713441591</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1841533350044026</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.192449743936979</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.1873317603832376</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2223772889839405</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2332101797754765</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dry Stock</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oil</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>243070</v>
+      </c>
+      <c r="C21" t="n">
+        <v>242376</v>
+      </c>
+      <c r="D21" t="n">
+        <v>261119</v>
+      </c>
+      <c r="E21" t="n">
+        <v>294305</v>
+      </c>
+      <c r="F21" t="n">
+        <v>244105</v>
+      </c>
+      <c r="G21" t="n">
+        <v>299287</v>
+      </c>
+      <c r="H21" t="n">
+        <v>295960</v>
+      </c>
+      <c r="I21" t="n">
+        <v>248763</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>694</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-18743</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-33186</v>
+      </c>
+      <c r="O21" t="n">
+        <v>50200</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-55182</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3327</v>
+      </c>
+      <c r="R21" t="n">
+        <v>47197</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.02873730372928153</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.02596592265974901</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.02845019919720992</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.02514447079264349</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.02466347155057822</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.02041090530172711</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.02173729230279226</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.02183809769708598</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flour</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>174980</v>
+      </c>
+      <c r="C22" t="n">
+        <v>191462</v>
+      </c>
+      <c r="D22" t="n">
+        <v>197629</v>
+      </c>
+      <c r="E22" t="n">
+        <v>199164</v>
+      </c>
+      <c r="F22" t="n">
+        <v>171683</v>
+      </c>
+      <c r="G22" t="n">
+        <v>215243</v>
+      </c>
+      <c r="H22" t="n">
+        <v>200367</v>
+      </c>
+      <c r="I22" t="n">
+        <v>153613</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>-16482</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-6167</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1535</v>
+      </c>
+      <c r="O22" t="n">
+        <v>27481</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-43560</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14876</v>
+      </c>
+      <c r="R22" t="n">
+        <v>46754</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.02068726460093669</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.02051146765472186</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.02153265146215097</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01701593034758515</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.01734621898862342</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.01467923595030739</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.01471629965817535</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0134851875139891</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rice</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>68823</v>
+      </c>
+      <c r="C23" t="n">
+        <v>70091</v>
+      </c>
+      <c r="D23" t="n">
+        <v>62542</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16533</v>
+      </c>
+      <c r="F23" t="n">
+        <v>73056</v>
+      </c>
+      <c r="G23" t="n">
+        <v>105056</v>
+      </c>
+      <c r="H23" t="n">
+        <v>104871</v>
+      </c>
+      <c r="I23" t="n">
+        <v>83432</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-1268</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7549</v>
+      </c>
+      <c r="N23" t="n">
+        <v>46009</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-56523</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>185</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21439</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.00813669911778641</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.007508901397599053</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.006814258472925766</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.00141252624187416</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.007381309590541128</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.007164654887710603</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.007702431345743097</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.007324224933222698</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sugar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16969</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27826</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25396</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24150</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10714</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>26580</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25366</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-10857</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1246</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13436</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-10660</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-5206</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1214</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.002006184666895044</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.002981020249241575</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.00276701909402358</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.002063298175845943</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.001082503161315397</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.001457673370106671</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.001952213912042905</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.002226798945921552</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Dry Stock</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>445446</v>
+      </c>
+      <c r="C25" t="n">
+        <v>716298</v>
+      </c>
+      <c r="D25" t="n">
+        <v>612997</v>
+      </c>
+      <c r="E25" t="n">
+        <v>708090</v>
+      </c>
+      <c r="F25" t="n">
+        <v>550789</v>
+      </c>
+      <c r="G25" t="n">
+        <v>759092</v>
+      </c>
+      <c r="H25" t="n">
+        <v>762870</v>
+      </c>
+      <c r="I25" t="n">
+        <v>590607</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>-270852</v>
+      </c>
+      <c r="M25" t="n">
+        <v>103301</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-95093</v>
+      </c>
+      <c r="O25" t="n">
+        <v>157301</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-208303</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-3778</v>
+      </c>
+      <c r="R25" t="n">
+        <v>172263</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.05266350021390357</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.07673754195684761</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.06678903778465792</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.06049692775713265</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.05564969513886002</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.05176888714611271</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.05603030199699666</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.05184747477150083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total 2502 Dry Stock</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>949288</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1248053</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1159683</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1242242</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1050347</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1400052</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1390648</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1101781</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>-298765</v>
+      </c>
+      <c r="M26" t="n">
+        <v>88370</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-82559</v>
+      </c>
+      <c r="O26" t="n">
+        <v>191895</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-349705</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9404</v>
+      </c>
+      <c r="R26" t="n">
+        <v>288867</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1122309523288032</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1337048539181591</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1263531660109682</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1061331533150814</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1061231984299182</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.09548135665596448</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1021385392157503</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.09672178386172016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Food</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>82924</v>
+      </c>
+      <c r="C27" t="n">
+        <v>81510</v>
+      </c>
+      <c r="D27" t="n">
+        <v>105995</v>
+      </c>
+      <c r="E27" t="n">
+        <v>117372</v>
+      </c>
+      <c r="F27" t="n">
+        <v>107006</v>
+      </c>
+      <c r="G27" t="n">
+        <v>267554</v>
+      </c>
+      <c r="H27" t="n">
+        <v>262511</v>
+      </c>
+      <c r="I27" t="n">
+        <v>221170</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1414</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-24485</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-11377</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10366</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-160548</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5043</v>
+      </c>
+      <c r="R27" t="n">
+        <v>41341</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.009803810319854124</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.008732227431743003</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01154867651878364</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01002788544494368</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01081149274591333</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.01824676433356041</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.01928057284666272</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01941579763736772</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>375534</v>
+      </c>
+      <c r="C28" t="n">
+        <v>396872</v>
+      </c>
+      <c r="D28" t="n">
+        <v>334875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>433301</v>
+      </c>
+      <c r="F28" t="n">
+        <v>383984</v>
+      </c>
+      <c r="G28" t="n">
+        <v>526175</v>
+      </c>
+      <c r="H28" t="n">
+        <v>503954</v>
+      </c>
+      <c r="I28" t="n">
+        <v>462482</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-21338</v>
+      </c>
+      <c r="M28" t="n">
+        <v>61997</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-98426</v>
+      </c>
+      <c r="O28" t="n">
+        <v>49317</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-142191</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22221</v>
+      </c>
+      <c r="R28" t="n">
+        <v>41472</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0443980524897026</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.04251719501031418</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.03648627811904025</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0370198411135496</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03879633133232513</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.03588431203873293</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.03701377012150753</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.04059979618811366</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>281167</v>
+      </c>
+      <c r="C29" t="n">
+        <v>329623</v>
+      </c>
+      <c r="D29" t="n">
+        <v>327724</v>
+      </c>
+      <c r="E29" t="n">
+        <v>403361</v>
+      </c>
+      <c r="F29" t="n">
+        <v>362322</v>
+      </c>
+      <c r="G29" t="n">
+        <v>432362</v>
+      </c>
+      <c r="H29" t="n">
+        <v>466465</v>
+      </c>
+      <c r="I29" t="n">
+        <v>413833</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>-48456</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1899</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-75637</v>
+      </c>
+      <c r="O29" t="n">
+        <v>41039</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-70040</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-34103</v>
+      </c>
+      <c r="R29" t="n">
+        <v>52632</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.03324137687765212</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.03531275920418873</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.03570714150140903</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.03446186399616544</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.03660768251018456</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.02948641216646676</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.03426032590222324</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.03632905811667404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages &amp; Soft Drinks</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>261861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>310977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>282847</v>
+      </c>
+      <c r="E30" t="n">
+        <v>337961</v>
+      </c>
+      <c r="F30" t="n">
+        <v>253052</v>
+      </c>
+      <c r="G30" t="n">
+        <v>341478</v>
+      </c>
+      <c r="H30" t="n">
+        <v>321123</v>
+      </c>
+      <c r="I30" t="n">
+        <v>268823</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-49116</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28130</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-55114</v>
+      </c>
+      <c r="O30" t="n">
+        <v>84909</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-88426</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20355</v>
+      </c>
+      <c r="R30" t="n">
+        <v>52300</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.03095889699203271</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0333151992398619</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.03081757165251565</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.02887429874977518</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02556744352969795</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.0232882655131134</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.02358543220756034</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.02359910009617084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Consumables</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>198072</v>
+      </c>
+      <c r="C31" t="n">
+        <v>194508</v>
+      </c>
+      <c r="D31" t="n">
+        <v>155321</v>
+      </c>
+      <c r="E31" t="n">
+        <v>182224</v>
+      </c>
+      <c r="F31" t="n">
+        <v>165021</v>
+      </c>
+      <c r="G31" t="n">
+        <v>335837</v>
+      </c>
+      <c r="H31" t="n">
+        <v>333080</v>
+      </c>
+      <c r="I31" t="n">
+        <v>203024</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>3564</v>
+      </c>
+      <c r="M31" t="n">
+        <v>39187</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-26903</v>
+      </c>
+      <c r="O31" t="n">
+        <v>17203</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-170816</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2757</v>
+      </c>
+      <c r="R31" t="n">
+        <v>130056</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0234173498344767</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.02083778791919357</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0169229867972451</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.01556863133728162</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.01667311500685347</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.02290355813589006</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.02446363468108544</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.01782281909630124</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Disposable Material</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>88366</v>
+      </c>
+      <c r="C32" t="n">
+        <v>181036</v>
+      </c>
+      <c r="D32" t="n">
+        <v>125417</v>
+      </c>
+      <c r="E32" t="n">
+        <v>137657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>124642</v>
+      </c>
+      <c r="G32" t="n">
+        <v>126217</v>
+      </c>
+      <c r="H32" t="n">
+        <v>155125</v>
+      </c>
+      <c r="I32" t="n">
+        <v>93154</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-92670</v>
+      </c>
+      <c r="M32" t="n">
+        <v>55619</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-12240</v>
+      </c>
+      <c r="O32" t="n">
+        <v>13015</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1575</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-28908</v>
+      </c>
+      <c r="R32" t="n">
+        <v>61971</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.01044719867257042</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01939452245531869</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01366479893349958</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.01176097047587681</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.01259336933289842</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.008607801990958813</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.01139342299118343</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.008177687810785155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Total 25 Supplies and Materials</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4064909</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4791166</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4580309</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5009552</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4351132</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6176538</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6460642</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5420820</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>-726257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>210857</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-429243</v>
+      </c>
+      <c r="O33" t="n">
+        <v>658420</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-1825406</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-284104</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1039822</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4805797694692478</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.5132812069100036</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.4990471908776205</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.4279999794370764</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.4396223768247701</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.4212302312179245</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.4745129869499135</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.4758762225826093</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of Labour</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1578434</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1633000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1567716</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1588000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1569734</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1583200</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1690334</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1672133</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>-54566</v>
+      </c>
+      <c r="M35" t="n">
+        <v>65284</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-20284</v>
+      </c>
+      <c r="O35" t="n">
+        <v>18266</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-13466</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-107134</v>
+      </c>
+      <c r="R35" t="n">
+        <v>18201</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.1866126518065774</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1749445147348341</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1708103680109573</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1356736026187726</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.1586001509636236</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.1079717638042894</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.1241494940105016</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.1467911378159995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wages &amp; Allowance</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>2360</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0.00189162323474104</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0.0002016307948238685</v>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>0.0003750913977536582</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Total 26 Cost of Labour</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1594434</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1633000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1567716</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1590360</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1569734</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1588700</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1690334</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1672133</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-38566</v>
+      </c>
+      <c r="M37" t="n">
+        <v>65284</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-22644</v>
+      </c>
+      <c r="O37" t="n">
+        <v>20626</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-18966</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-101634</v>
+      </c>
+      <c r="R37" t="n">
+        <v>18201</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.1885042750413184</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1749445147348341</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1708103680109573</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1358752334135964</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.1586001509636236</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.1083468552020431</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1241494940105016</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.1467911378159995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of Overheads</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Restaurant Rent</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>805983</v>
+      </c>
+      <c r="C39" t="n">
+        <v>908077</v>
+      </c>
+      <c r="D39" t="n">
+        <v>837587</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1092320</v>
+      </c>
+      <c r="F39" t="n">
+        <v>925668</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1366722</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1293643</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1106060</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-102094</v>
+      </c>
+      <c r="M39" t="n">
+        <v>70490</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-254733</v>
+      </c>
+      <c r="O39" t="n">
+        <v>166652</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-441054</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>73079</v>
+      </c>
+      <c r="R39" t="n">
+        <v>187583</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.09528851060039296</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.09728297005931653</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.09125922278728651</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.09332430076356274</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.09352609075308017</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.09320830278557732</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0950138397974763</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.09709742340637041</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilitites</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1194670</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1314699</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1534539</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1406169</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1009609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1386086</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1940185</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1688023</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-120029</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-219840</v>
+      </c>
+      <c r="N40" t="n">
+        <v>128370</v>
+      </c>
+      <c r="O40" t="n">
+        <v>396560</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-376477</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-554099</v>
+      </c>
+      <c r="R40" t="n">
+        <v>252162</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.1412415956155049</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1408446898820402</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1671955707010494</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1201385479350358</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.1020071807161169</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.09452889729941402</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.1425002313369813</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.1481860694272387</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2190</v>
+      </c>
+      <c r="C41" t="n">
+        <v>28040</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52150</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41730</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42820</v>
+      </c>
+      <c r="G41" t="n">
+        <v>46342</v>
+      </c>
+      <c r="H41" t="n">
+        <v>49300</v>
+      </c>
+      <c r="I41" t="n">
+        <v>33920</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-25850</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-24110</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10420</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1090</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-3522</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-2958</v>
+      </c>
+      <c r="R41" t="n">
+        <v>15380</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0002589159302551798</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.003003946229739588</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.005681998966503768</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.003565276723728828</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.004326375337644699</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.003160451919036369</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.003620923471170625</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.002977726888183358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>14150</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3380</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2280</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>2280</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1100</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-1010</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>0.001541712087747427</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>0.0005718655864331853</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0002305107135286118</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0001674585297011973</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.0002888184393314637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laundry</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50680</v>
+      </c>
+      <c r="C43" t="n">
+        <v>51560</v>
+      </c>
+      <c r="D43" t="n">
+        <v>51920</v>
+      </c>
+      <c r="E43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>52220</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>55400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>-880</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-360</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1920</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-2220</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2220</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-5400</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.005991716596042243</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.005523661469521153</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.005656939335395506</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.004271838873387045</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.005276116770943628</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.003409921797760529</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.004068948484844881</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.004389337983760845</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Direct Cost</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>37615</v>
+      </c>
+      <c r="E44" t="n">
+        <v>167500</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>47000</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-31615</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-129885</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>0.001773396782569725</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0006427844999442769</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.004098339235379468</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0143106602258466</v>
+      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
+        <v>0.003451996006998365</v>
+      </c>
+      <c r="Z44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Total 27 Cost of Overheads</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2068523</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2308376</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2527961</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2757719</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2035977</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2852530</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3387808</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2881293</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-239853</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-219585</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-229758</v>
+      </c>
+      <c r="O45" t="n">
+        <v>721742</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-816553</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-535278</v>
+      </c>
+      <c r="R45" t="n">
+        <v>506515</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.244554135524765</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2472980521405617</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.2754337831133621</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.235610624521561</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.2057076291642186</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.1945380845153168</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.2488233976271727</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.2529393761448848</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Total Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7727866</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8732542</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8675986</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9357631</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7956843</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10617768</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11538784</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9974246</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>-1004676</v>
+      </c>
+      <c r="M46" t="n">
+        <v>56556</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-681645</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1400788</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-2660925</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-921016</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1564538</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9136381800353311</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.9355237737853993</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.9452913420019398</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.7994858373722338</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.8039301569526123</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.7241151709352843</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.8474858785875877</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.8756067365434935</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>730477.9800000004</v>
+      </c>
+      <c r="C47" t="n">
+        <v>601846.120000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>502121.9700000007</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2346930.310000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1940587.68</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4045324.870000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2076527.23</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1416993.449999999</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>128631.8599999994</v>
+      </c>
+      <c r="M47" t="n">
+        <v>99724.15000000037</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1844808.34</v>
+      </c>
+      <c r="O47" t="n">
+        <v>406342.6300000008</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-2104737.190000001</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1968797.640000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>659533.7800000012</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.08636181996466882</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.06447622621460065</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0547086579980602</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2005141626277662</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.1960698430473877</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.2758848290647156</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1525141214124123</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.1243932634565064</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.0003749576249674949</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Others</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7732</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>11990</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20190</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>24968</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>-980</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-7220</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9700</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.003866004986002</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0008283349589281915</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>0.001211425509069592</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0008845337143390812</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.001482889348538234</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.0009208831089930254</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11232</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11990</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20190</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>21468</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11232</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-11990</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-980</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-7220</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9700</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.003866004986002</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.001203292583895686</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.001211425509069592</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0008845337143390812</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.001482889348538234</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.0009208831089930254</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries - Non Operation Staff</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C55" t="n">
+        <v>169500</v>
+      </c>
+      <c r="D55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="E55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="H55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>149500</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.02003938364303789</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.01815866212342582</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.01792308398830048</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.01405434989344338</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.01662047508273127</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.01121864271463214</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.01208198602449428</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.001316801395128254</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>122500</v>
+      </c>
+      <c r="C56" t="n">
+        <v>121666</v>
+      </c>
+      <c r="D56" t="n">
+        <v>127500</v>
+      </c>
+      <c r="E56" t="n">
+        <v>139500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>126083</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>105000</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>834</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-5834</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>13417</v>
+      </c>
+      <c r="P56" t="n">
+        <v>26083</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.01448274039098608</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.01303416982837007</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.01389175202740614</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01191843045674986</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0127389626738967</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.006819843595521059</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.00734467235531567</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.009217609765897776</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Admin &amp; HR</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="H57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.006443341643336666</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.005838625874493849</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.005938043023479489</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.004656304371991879</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.005506479586679965</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.003716814759558977</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.00400284643364704</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.004784378402299322</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total 2801 Salaries - Non Operation Staff</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>346500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>345666</v>
+      </c>
+      <c r="D58" t="n">
+        <v>346500</v>
+      </c>
+      <c r="E58" t="n">
+        <v>358500</v>
+      </c>
+      <c r="F58" t="n">
+        <v>345083</v>
+      </c>
+      <c r="G58" t="n">
+        <v>319000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>319000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>174500</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>834</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-834</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>13417</v>
+      </c>
+      <c r="P58" t="n">
+        <v>26083</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>144500</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.04096546567736064</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.03703145782628974</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.03775287903918611</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.03062908472218511</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.03486591734330793</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.02175530106971217</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.02342950481345699</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.01531878956332535</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Benefits (Direct &amp; Indirect)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>306849</v>
+      </c>
+      <c r="C59" t="n">
+        <v>401112</v>
+      </c>
+      <c r="D59" t="n">
+        <v>391247</v>
+      </c>
+      <c r="E59" t="n">
+        <v>332457</v>
+      </c>
+      <c r="F59" t="n">
+        <v>251548</v>
+      </c>
+      <c r="G59" t="n">
+        <v>281790</v>
+      </c>
+      <c r="H59" t="n">
+        <v>293731</v>
+      </c>
+      <c r="I59" t="n">
+        <v>462852</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>-94263</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9865</v>
+      </c>
+      <c r="N59" t="n">
+        <v>58790</v>
+      </c>
+      <c r="O59" t="n">
+        <v>80909</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-30242</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-11941</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-169121</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.03627766862231583</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0429714293902748</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.04262828474875743</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.02840405472659274</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.02541548490037012</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.01921763726781879</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.02157357955599227</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0406322772891935</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total 28 Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>653349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>746778</v>
+      </c>
+      <c r="D60" t="n">
+        <v>737747</v>
+      </c>
+      <c r="E60" t="n">
+        <v>690957</v>
+      </c>
+      <c r="F60" t="n">
+        <v>596631</v>
+      </c>
+      <c r="G60" t="n">
+        <v>600790</v>
+      </c>
+      <c r="H60" t="n">
+        <v>612731</v>
+      </c>
+      <c r="I60" t="n">
+        <v>637352</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>-93429</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9031</v>
+      </c>
+      <c r="N60" t="n">
+        <v>46790</v>
+      </c>
+      <c r="O60" t="n">
+        <v>94326</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-4159</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-11941</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-24621</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.07724313429967647</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.08000288721656454</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.08038116378794354</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.05903313944877785</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.06028140224367805</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.04097293833753097</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.04500308436944926</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.05595106685251885</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toll Tax</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>6.537295071720538e-06</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Total 29 Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>60</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-60</v>
+      </c>
+      <c r="N63" t="n">
+        <v>60</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6.537295071720538e-06</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal Services</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>945</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1495</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1420</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1495</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>-235</v>
+      </c>
+      <c r="M65" t="n">
+        <v>105</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-220</v>
+      </c>
+      <c r="O65" t="n">
+        <v>165</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-365</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>75</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-75</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0001117239973018927</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0001264142849890411</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0001171265367016597</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0001106406268207245</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0001141710446412543</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0001019566617530398</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0001042943474454825</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.0001312412057144493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Registration Fee</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>0.01010363226913755</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>0.002203401706594701</v>
+      </c>
+      <c r="Z66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dues &amp; Subscriptions</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>10162</v>
+      </c>
+      <c r="G67" t="n">
+        <v>49253</v>
+      </c>
+      <c r="H67" t="n">
+        <v>43422</v>
+      </c>
+      <c r="I67" t="n">
+        <v>38422</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>-39091</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5831</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="n">
+        <v>0.001026731111189758</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.003358977566101987</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.00318920363012517</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.003372942880241184</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Total 30 Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>945</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F68" t="n">
+        <v>111292</v>
+      </c>
+      <c r="G68" t="n">
+        <v>50748</v>
+      </c>
+      <c r="H68" t="n">
+        <v>74842</v>
+      </c>
+      <c r="I68" t="n">
+        <v>39917</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>-235</v>
+      </c>
+      <c r="M68" t="n">
+        <v>105</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-220</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-109997</v>
+      </c>
+      <c r="P68" t="n">
+        <v>60544</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-24094</v>
+      </c>
+      <c r="R68" t="n">
+        <v>34925</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0001117239973018927</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0001264142849890411</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0001171265367016597</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0001106406268207245</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.01124453442496856</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.003460934227855027</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.005496899684165354</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.003504184085955633</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Communication Charges</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mobile Charges</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>14771</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26706</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21140</v>
+      </c>
+      <c r="E70" t="n">
+        <v>22474</v>
+      </c>
+      <c r="F70" t="n">
+        <v>32805</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28341</v>
+      </c>
+      <c r="H70" t="n">
+        <v>28081</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>-11935</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5566</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1334</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-10331</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4464</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>260</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3081</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.001746322925022494</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.002861033809251977</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.00230330696360287</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.001920106136810009</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.003314496565890573</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.001932811873406623</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.002062457444096194</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.002194668991880423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Postage &amp; Courier</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1690</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="n">
+        <v>0.0001152553567643059</v>
+      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Telephone Bill</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5640</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5680</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8160</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7760</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7490</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7620</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8080</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8330</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="N72" t="n">
+        <v>400</v>
+      </c>
+      <c r="O72" t="n">
+        <v>270</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-130</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-460</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-250</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0006667971902462165</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.0006085026599472489</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0008890721297539932</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0006629893931496694</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0007567620569584025</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0005196720819787046</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0005934495263095062</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.0007312637080945568</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Total 31 Communication Charges</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>20411</v>
+      </c>
+      <c r="C73" t="n">
+        <v>32386</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29300</v>
+      </c>
+      <c r="E73" t="n">
+        <v>30234</v>
+      </c>
+      <c r="F73" t="n">
+        <v>40295</v>
+      </c>
+      <c r="G73" t="n">
+        <v>37651</v>
+      </c>
+      <c r="H73" t="n">
+        <v>36161</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33330</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>-11975</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3086</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-934</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-10061</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2644</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1490</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2831</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.00241312011526871</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.003469536469199226</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.003192379093356863</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.002583095529959679</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.004071258622848976</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.002567739312149634</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.002655906970405699</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.002925932699974979</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equipment Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>27450</v>
+      </c>
+      <c r="C75" t="n">
+        <v>26351</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5830</v>
+      </c>
+      <c r="E75" t="n">
+        <v>43640</v>
+      </c>
+      <c r="F75" t="n">
+        <v>88360</v>
+      </c>
+      <c r="G75" t="n">
+        <v>68010</v>
+      </c>
+      <c r="H75" t="n">
+        <v>74030</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21370</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1099</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20521</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-37810</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-44720</v>
+      </c>
+      <c r="P75" t="n">
+        <v>20350</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-6020</v>
+      </c>
+      <c r="R75" t="n">
+        <v>52660</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.003245316112102596</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.002823002393005274</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0006352071711355123</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.003728460968692213</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.008927569473009938</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.004638175629313871</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.005437260944640191</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.001876003054259385</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vehicle Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C76" t="n">
+        <v>862</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11415</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5910</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1340</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9100</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>676</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-4998</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2560</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-8115</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5505</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4570</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-7760</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.0001818322834394824</v>
+      </c>
+      <c r="T76" t="n">
+        <v>9.234670649199445e-05</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0006384758186713726</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.000281941365643545</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.001153329623522051</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0004030527564952946</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9.841860956122999e-05</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.0007988595130444738</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Computer &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C77" t="n">
+        <v>850</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>5200</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-5050</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>0.0005142850669452202</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9.10611374921059e-05</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.000642834015385853</v>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="n">
+        <v>0.000354631866967095</v>
+      </c>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Building Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20070</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E78" t="n">
+        <v>85580</v>
+      </c>
+      <c r="F78" t="n">
+        <v>56260</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>9930</v>
+      </c>
+      <c r="M78" t="n">
+        <v>14210</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-79720</v>
+      </c>
+      <c r="O78" t="n">
+        <v>29320</v>
+      </c>
+      <c r="P78" t="n">
+        <v>55160</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>0.003546793565139449</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.002150114152313606</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0006384758186713726</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.007311679415689267</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.005684303514616786</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7.501827955073164e-05</v>
+      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Total 32 Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>63338</v>
+      </c>
+      <c r="C79" t="n">
+        <v>48133</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23450</v>
+      </c>
+      <c r="E79" t="n">
+        <v>132520</v>
+      </c>
+      <c r="F79" t="n">
+        <v>156035</v>
+      </c>
+      <c r="G79" t="n">
+        <v>80220</v>
+      </c>
+      <c r="H79" t="n">
+        <v>75370</v>
+      </c>
+      <c r="I79" t="n">
+        <v>30470</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>15205</v>
+      </c>
+      <c r="M79" t="n">
+        <v>24683</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-109070</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-23515</v>
+      </c>
+      <c r="P79" t="n">
+        <v>75815</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4850</v>
+      </c>
+      <c r="R79" t="n">
+        <v>44900</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.007488227027626748</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.00515652438930298</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.00255499282386411</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.01132208175002502</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.01576520261114878</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.005470878532326993</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.005535679554201421</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.002674862567303859</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel Charges</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>700</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>8.275851651992049e-05</v>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Transportation &amp; Carriage</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>320</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>350</v>
+      </c>
+      <c r="I82" t="n">
+        <v>650</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>-300</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.783246469482079e-05</v>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>0.0002397008192964197</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="n">
+        <v>0.0002525908067284387</v>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="n">
+        <v>2.570635324360485e-05</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>5.706139378889099e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Total 33 Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>350</v>
+      </c>
+      <c r="I83" t="n">
+        <v>650</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-2200</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-350</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-300</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0001205909812147413</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0002397008192964197</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.0002525908067284387</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.570635324360485e-05</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>5.706139378889099e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>6100</v>
+      </c>
+      <c r="I85" t="n">
+        <v>500</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>5600</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="n">
+        <v>0.0004480250136742559</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.389337983760846e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Printing</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>48825</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6550</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>42275</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>0.003213922499721385</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.003268647535860269</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="n">
+        <v>0.004933098455406409</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.0004466997555066293</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stationary Expense</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>14710</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17881</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13280</v>
+      </c>
+      <c r="E87" t="n">
+        <v>19790</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16030</v>
+      </c>
+      <c r="G87" t="n">
+        <v>21922</v>
+      </c>
+      <c r="H87" t="n">
+        <v>18107</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12380</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>-3171</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-6510</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3760</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-5892</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3815</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5727</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.001739111111440043</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.001915604940583936</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.001446921309207479</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.001690793826086592</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.001619612252742749</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.001495046113010126</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.001329899823377008</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.001086800084779185</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Total 34 Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>14710</v>
+      </c>
+      <c r="C88" t="n">
+        <v>47881</v>
+      </c>
+      <c r="D88" t="n">
+        <v>43280</v>
+      </c>
+      <c r="E88" t="n">
+        <v>19790</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64855</v>
+      </c>
+      <c r="G88" t="n">
+        <v>28472</v>
+      </c>
+      <c r="H88" t="n">
+        <v>24207</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12880</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>-33171</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N88" t="n">
+        <v>23490</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-45065</v>
+      </c>
+      <c r="P88" t="n">
+        <v>36383</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4265</v>
+      </c>
+      <c r="R88" t="n">
+        <v>11327</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.001739111111440043</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.005129527440305321</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.004715568845067748</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.001690793826086592</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.006552710708149158</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.001941745868516756</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.001777924837051264</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.001130693464616794</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agency Fee</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="I90" t="n">
+        <v>130000</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-45000</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.01004924843456177</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.00910611374921059</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.009261168018270764</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.007262126084757977</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.008588087428766917</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.005796867056192899</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.00624297150201832</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.0114122787577782</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Spend</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>86083</v>
+      </c>
+      <c r="D91" t="n">
+        <v>22492</v>
+      </c>
+      <c r="E91" t="n">
+        <v>84028</v>
+      </c>
+      <c r="F91" t="n">
+        <v>65325</v>
+      </c>
+      <c r="G91" t="n">
+        <v>256228</v>
+      </c>
+      <c r="H91" t="n">
+        <v>186283</v>
+      </c>
+      <c r="I91" t="n">
+        <v>38465</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>-36083</v>
+      </c>
+      <c r="M91" t="n">
+        <v>63591</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-61536</v>
+      </c>
+      <c r="O91" t="n">
+        <v>18703</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-190903</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>69945</v>
+      </c>
+      <c r="R91" t="n">
+        <v>147818</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.005911322608565749</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.009222136351450532</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.002450614012552306</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.007179081537059332</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.006600197779814104</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.0174743488479317</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.01368187600365269</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.003376717710907219</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Production</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>2524</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>8625</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>0.0002703980129765592</v>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="n">
+        <v>0.0008714382832131136</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Total 35 Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>135000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>173607</v>
+      </c>
+      <c r="D93" t="n">
+        <v>107492</v>
+      </c>
+      <c r="E93" t="n">
+        <v>169028</v>
+      </c>
+      <c r="F93" t="n">
+        <v>158950</v>
+      </c>
+      <c r="G93" t="n">
+        <v>341228</v>
+      </c>
+      <c r="H93" t="n">
+        <v>271283</v>
+      </c>
+      <c r="I93" t="n">
+        <v>168465</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>-38607</v>
+      </c>
+      <c r="M93" t="n">
+        <v>66115</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-61536</v>
+      </c>
+      <c r="O93" t="n">
+        <v>10078</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-182278</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>69945</v>
+      </c>
+      <c r="R93" t="n">
+        <v>102818</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.01596057104312752</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.01859864811363768</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.01171178203082307</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.01444120762181731</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.01605972349179413</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.0232712159041246</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.01992484750567101</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.01478899646868542</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Entertainment</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="n">
+        <v>0.0001795026694597236</v>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Food</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18900</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>133534</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>0.002872902787762954</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.002024771174824472</v>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="n">
+        <v>0.01172251716647042</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Total 36 Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18900</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>133534</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M97" t="n">
+        <v>18900</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-2101</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-133534</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.002872902787762954</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.002024771174824472</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.0001795026694597236</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.01172251716647042</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cleaning, Washing &amp; Janitorial Expenses</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>122467</v>
+      </c>
+      <c r="C98" t="n">
+        <v>134317</v>
+      </c>
+      <c r="D98" t="n">
+        <v>132800</v>
+      </c>
+      <c r="E98" t="n">
+        <v>154925</v>
+      </c>
+      <c r="F98" t="n">
+        <v>130757</v>
+      </c>
+      <c r="G98" t="n">
+        <v>122120</v>
+      </c>
+      <c r="H98" t="n">
+        <v>134121</v>
+      </c>
+      <c r="I98" t="n">
+        <v>133284</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>-11850</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1517</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-22125</v>
+      </c>
+      <c r="O98" t="n">
+        <v>24168</v>
+      </c>
+      <c r="P98" t="n">
+        <v>8637</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-12001</v>
+      </c>
+      <c r="R98" t="n">
+        <v>837</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.01447883891806443</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.01438948094650257</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.01446921309207479</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.01323629274918976</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.01321120644615619</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.008328392998850317</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.00985074800967293</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.01170057047655161</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Uniform</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>18500</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>0.00141871742605578</v>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="n">
+        <v>0.001580580383153207</v>
+      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Misc Expenses</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>200</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>346</v>
+      </c>
+      <c r="F100" t="n">
+        <v>514</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>-2800</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N100" t="n">
+        <v>654</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>2.3645290434263e-05</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.0003213922499721385</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.000108954917862009</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.956112500383835e-05</v>
+      </c>
+      <c r="W100" t="n">
+        <v>5.193266986336701e-05</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1047740</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1206182</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1078404</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1219696</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1261829</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1261229</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1229065</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1189882</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>-158442</v>
+      </c>
+      <c r="M101" t="n">
+        <v>127778</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-141292</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-42133</v>
+      </c>
+      <c r="P101" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>32164</v>
+      </c>
+      <c r="R101" t="n">
+        <v>39183</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.1238705829979736</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.129219182285298</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1174974192420619</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.1042068957302937</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.1274905620253357</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.08601384518135428</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.09027079728386055</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.1044558851758664</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="n">
+        <v>0.0003749576249674949</v>
+      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bank Service Charges</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>111937.49</v>
+      </c>
+      <c r="C104" t="n">
+        <v>119082.96</v>
+      </c>
+      <c r="D104" t="n">
+        <v>104418.08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>139645.96</v>
+      </c>
+      <c r="F104" t="n">
+        <v>146334</v>
+      </c>
+      <c r="G104" t="n">
+        <v>171068.29</v>
+      </c>
+      <c r="H104" t="n">
+        <v>221990.84</v>
+      </c>
+      <c r="I104" t="n">
+        <v>171802.61</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>-7145.470000000001</v>
+      </c>
+      <c r="M104" t="n">
+        <v>14664.88</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-35227.87999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-6688.040000000008</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-24734.29000000001</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-50922.54999999999</v>
+      </c>
+      <c r="R104" t="n">
+        <v>50188.23000000001</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.01323397230766205</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.01275744681591406</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.01137686332970868</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.01193090080878905</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.01478504924471974</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.01166658981953239</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.01630449985681304</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.01508199443564502</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Total Other Expenses</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>111937.49</v>
+      </c>
+      <c r="C105" t="n">
+        <v>122582.96</v>
+      </c>
+      <c r="D105" t="n">
+        <v>104418.08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>139645.96</v>
+      </c>
+      <c r="F105" t="n">
+        <v>146334</v>
+      </c>
+      <c r="G105" t="n">
+        <v>171068.29</v>
+      </c>
+      <c r="H105" t="n">
+        <v>221990.84</v>
+      </c>
+      <c r="I105" t="n">
+        <v>171802.61</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>-10645.47</v>
+      </c>
+      <c r="M105" t="n">
+        <v>18164.88</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-35227.87999999999</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-6688.040000000008</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-24734.29000000001</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-50922.54999999999</v>
+      </c>
+      <c r="R105" t="n">
+        <v>50188.23000000001</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.01323397230766205</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.01313240444088155</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.01137686332970868</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.01193090080878905</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.01478504924471974</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.01166658981953239</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.01630449985681304</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.01508199443564502</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Net Earnings</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-396499.5099999995</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-715686.8399999989</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-680700.1099999993</v>
+      </c>
+      <c r="E106" t="n">
+        <v>987588.3500000006</v>
+      </c>
+      <c r="F106" t="n">
+        <v>544414.6799999997</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2625997.580000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>645661.3900000005</v>
+      </c>
+      <c r="I106" t="n">
+        <v>65798.83999999927</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>319187.3299999994</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-34986.72999999963</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-1668288.46</v>
+      </c>
+      <c r="O106" t="n">
+        <v>443173.6700000009</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-2081582.900000001</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1980336.19</v>
+      </c>
+      <c r="R106" t="n">
+        <v>579862.5500000012</v>
+      </c>
+      <c r="S106" t="n">
+        <v>-0.04687673035496477</v>
+      </c>
+      <c r="T106" t="n">
+        <v>-0.07667206792768318</v>
+      </c>
+      <c r="U106" t="n">
+        <v>-0.0741656245737104</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.08437636608868347</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.0550056572864019</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.179088927778168</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.04742171362027693</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.005776266953987985</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Saturday, Mar 16, 2024 02:38:52 AM GMT+5 - Accrual Basis</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploaded_files/cleaned_Rest 8 months.xlsx
+++ b/uploaded_files/cleaned_Rest 8 months.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,1098 +568,854 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mutton</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>620143</v>
-      </c>
-      <c r="C2" t="n">
-        <v>697655</v>
-      </c>
-      <c r="D2" t="n">
-        <v>726473</v>
-      </c>
-      <c r="E2" t="n">
-        <v>831917</v>
-      </c>
-      <c r="F2" t="n">
-        <v>643501</v>
-      </c>
-      <c r="G2" t="n">
-        <v>927674</v>
-      </c>
-      <c r="H2" t="n">
-        <v>902742</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762178</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>-77512</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-28818</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-105444</v>
-      </c>
-      <c r="O2" t="n">
-        <v>188416</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-284173</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>24932</v>
-      </c>
-      <c r="R2" t="n">
-        <v>140564</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.07331730672887578</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.07474030338477075</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.07915280604396724</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.07107630760063061</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.06501697468822283</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.06326591587631403</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.06630344211382379</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.06690913691573748</v>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chicken</t>
+          <t xml:space="preserve"> Food &amp; Menu Sale</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1014477</v>
+        <v>7675911.66</v>
       </c>
       <c r="C3" t="n">
-        <v>1167824</v>
+        <v>8479431.91</v>
       </c>
       <c r="D3" t="n">
-        <v>1127693</v>
+        <v>7867590.62</v>
       </c>
       <c r="E3" t="n">
-        <v>1155256</v>
+        <v>10225831.2</v>
       </c>
       <c r="F3" t="n">
-        <v>1089110</v>
+        <v>8593215.15</v>
       </c>
       <c r="G3" t="n">
-        <v>1495680</v>
+        <v>12931382.07</v>
       </c>
       <c r="H3" t="n">
-        <v>1831514</v>
+        <v>12312355.41</v>
       </c>
       <c r="I3" t="n">
-        <v>1686495</v>
+        <v>10387147.68</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-153347</v>
+        <v>-803520.25</v>
       </c>
       <c r="M3" t="n">
-        <v>40131</v>
+        <v>611841.29</v>
       </c>
       <c r="N3" t="n">
-        <v>-27563</v>
+        <v>-2358240.579999999</v>
       </c>
       <c r="O3" t="n">
-        <v>66146</v>
+        <v>1632616.049999999</v>
       </c>
       <c r="P3" t="n">
-        <v>-406570</v>
+        <v>-4338166.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>-335834</v>
+        <v>619026.6600000001</v>
       </c>
       <c r="R3" t="n">
-        <v>145019</v>
+        <v>1925207.73</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1199380165193991</v>
+        <v>0.907495802742229</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1251098609771542</v>
+        <v>0.9084079000134825</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1228676981885625</v>
+        <v>0.8572126897740123</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09870134979027248</v>
+        <v>0.8736620646570818</v>
       </c>
       <c r="W3" t="n">
-        <v>0.110039669406404</v>
+        <v>0.8682268588518167</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1020030366894894</v>
+        <v>0.8819000319132535</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1345187024417362</v>
+        <v>0.9043021640864833</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1480519312584549</v>
+        <v>0.9118540370951469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beef</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>191591</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183108</v>
-      </c>
-      <c r="D4" t="n">
-        <v>222281</v>
-      </c>
-      <c r="E4" t="n">
-        <v>144761</v>
-      </c>
-      <c r="F4" t="n">
-        <v>123246</v>
-      </c>
-      <c r="G4" t="n">
-        <v>186171</v>
-      </c>
-      <c r="H4" t="n">
-        <v>160691</v>
-      </c>
-      <c r="I4" t="n">
-        <v>130090</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>8483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-39173</v>
-      </c>
-      <c r="N4" t="n">
-        <v>77520</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21515</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-62925</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>25480</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30601</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.02265112419795441</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.01961649736929945</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.02421860809728522</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.01236791334300764</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.01245232262642126</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.01269657102021751</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.0118022274544803</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.01142017956614897</v>
-      </c>
+          <t xml:space="preserve"> Beverages</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fish &amp; Prawns</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12000</v>
-      </c>
+          <t xml:space="preserve"> Bar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>23500</v>
+        <v>69140</v>
       </c>
       <c r="F5" t="n">
-        <v>48901</v>
+        <v>171651</v>
       </c>
       <c r="G5" t="n">
-        <v>137338</v>
+        <v>186775</v>
       </c>
       <c r="H5" t="n">
-        <v>132789</v>
+        <v>156284.75</v>
       </c>
       <c r="I5" t="n">
-        <v>77790</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1486</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-11500</v>
-      </c>
+        <v>193411.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-25401</v>
+        <v>-102511</v>
       </c>
       <c r="P5" t="n">
-        <v>-88437</v>
+        <v>-15124</v>
       </c>
       <c r="Q5" t="n">
-        <v>4549</v>
+        <v>30490.25</v>
       </c>
       <c r="R5" t="n">
-        <v>54999</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.000175684507926574</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.001307459014344108</v>
-      </c>
+        <v>-37126.75</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>0.002007764270491911</v>
+        <v>0.005907098794119606</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004940777215930953</v>
+        <v>0.0173429858262973</v>
       </c>
       <c r="X5" t="n">
-        <v>0.009366236797216711</v>
+        <v>0.01273776287553446</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.009752916973900126</v>
+        <v>0.01147860282882421</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.006828932035135123</v>
+        <v>0.01697896886892322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oil</t>
+          <t xml:space="preserve"> Other Beverages</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243070</v>
+        <v>383619</v>
       </c>
       <c r="C6" t="n">
-        <v>242376</v>
+        <v>609055</v>
       </c>
       <c r="D6" t="n">
-        <v>261119</v>
+        <v>508930</v>
       </c>
       <c r="E6" t="n">
-        <v>294305</v>
+        <v>629435</v>
       </c>
       <c r="F6" t="n">
-        <v>244105</v>
+        <v>487730</v>
       </c>
       <c r="G6" t="n">
-        <v>299287</v>
+        <v>546619.99</v>
       </c>
       <c r="H6" t="n">
-        <v>295960</v>
+        <v>461156</v>
       </c>
       <c r="I6" t="n">
-        <v>248763</v>
+        <v>480384</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>694</v>
+        <v>-225436</v>
       </c>
       <c r="M6" t="n">
-        <v>-18743</v>
+        <v>100125</v>
       </c>
       <c r="N6" t="n">
-        <v>-33186</v>
+        <v>-120505</v>
       </c>
       <c r="O6" t="n">
-        <v>50200</v>
+        <v>141705</v>
       </c>
       <c r="P6" t="n">
-        <v>-55182</v>
+        <v>-58889.98999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>3327</v>
+        <v>85463.98999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>47197</v>
+        <v>-19228</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02873730372928153</v>
+        <v>0.04535391335550768</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02596592265974901</v>
+        <v>0.06524851893559359</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02845019919720992</v>
+        <v>0.05545042634751222</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02514447079264349</v>
+        <v>0.0537768980254075</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02466347155057822</v>
+        <v>0.04927844566626458</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02041090530172711</v>
+        <v>0.03727862837985285</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02173729230279226</v>
+        <v>0.03387039724687953</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02183809769708598</v>
+        <v>0.0421713547598194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Flour</t>
+          <t>Total 20 Beverages</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174980</v>
+        <v>383619</v>
       </c>
       <c r="C7" t="n">
-        <v>191462</v>
+        <v>609055</v>
       </c>
       <c r="D7" t="n">
-        <v>197629</v>
+        <v>508930</v>
       </c>
       <c r="E7" t="n">
-        <v>199164</v>
+        <v>698575</v>
       </c>
       <c r="F7" t="n">
-        <v>171683</v>
+        <v>659381</v>
       </c>
       <c r="G7" t="n">
-        <v>215243</v>
+        <v>733394.99</v>
       </c>
       <c r="H7" t="n">
-        <v>200367</v>
+        <v>617440.75</v>
       </c>
       <c r="I7" t="n">
-        <v>153613</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>673795.5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="L7" t="n">
-        <v>-16482</v>
+        <v>-225436</v>
       </c>
       <c r="M7" t="n">
-        <v>-6167</v>
+        <v>100125</v>
       </c>
       <c r="N7" t="n">
-        <v>-1535</v>
+        <v>-189645</v>
       </c>
       <c r="O7" t="n">
-        <v>27481</v>
+        <v>39194</v>
       </c>
       <c r="P7" t="n">
-        <v>-43560</v>
+        <v>-74013.98999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>14876</v>
+        <v>115954.24</v>
       </c>
       <c r="R7" t="n">
-        <v>46754</v>
+        <v>-56354.75</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02068726460093669</v>
+        <v>0.04535391335550768</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02051146765472186</v>
+        <v>0.06524851893559359</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02153265146215097</v>
+        <v>0.05545042634751222</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01701593034758515</v>
+        <v>0.0596839968195271</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01734621898862342</v>
+        <v>0.06662143149256186</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01467923595030739</v>
+        <v>0.0500163912553873</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01471629965817535</v>
+        <v>0.04534900007570374</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0134851875139891</v>
+        <v>0.05915032362874262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rice</t>
+          <t xml:space="preserve"> Dawat Box</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68823</v>
+        <v>371700</v>
       </c>
       <c r="C8" t="n">
-        <v>70091</v>
+        <v>187200</v>
       </c>
       <c r="D8" t="n">
-        <v>62542</v>
+        <v>648900</v>
       </c>
       <c r="E8" t="n">
-        <v>16533</v>
+        <v>377200</v>
       </c>
       <c r="F8" t="n">
-        <v>73056</v>
+        <v>402590</v>
       </c>
       <c r="G8" t="n">
-        <v>105056</v>
+        <v>711686</v>
       </c>
       <c r="H8" t="n">
-        <v>104871</v>
+        <v>371027.5</v>
       </c>
       <c r="I8" t="n">
-        <v>83432</v>
+        <v>72575</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-1268</v>
+        <v>184500</v>
       </c>
       <c r="M8" t="n">
-        <v>7549</v>
+        <v>-461700</v>
       </c>
       <c r="N8" t="n">
-        <v>46009</v>
+        <v>271700</v>
       </c>
       <c r="O8" t="n">
-        <v>-56523</v>
+        <v>-25390</v>
       </c>
       <c r="P8" t="n">
-        <v>-32000</v>
+        <v>-309096</v>
       </c>
       <c r="Q8" t="n">
-        <v>185</v>
+        <v>340658.5</v>
       </c>
       <c r="R8" t="n">
-        <v>21439</v>
+        <v>298452.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00813669911778641</v>
+        <v>0.04394477227207778</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007508901397599053</v>
+        <v>0.02005487639826144</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006814258472925766</v>
+        <v>0.07070084620065763</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00141252624187416</v>
+        <v>0.03222675246083187</v>
       </c>
       <c r="W8" t="n">
-        <v>0.007381309590541128</v>
+        <v>0.04067621315232086</v>
       </c>
       <c r="X8" t="n">
-        <v>0.007164654887710603</v>
+        <v>0.04853587209122</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.007702431345743097</v>
+        <v>0.02725075422311885</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.007324224933222698</v>
+        <v>0.006371124083428868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sugar</t>
+          <t xml:space="preserve"> Food Panda</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16969</v>
+        <v>2613.32</v>
       </c>
       <c r="C9" t="n">
-        <v>27826</v>
+        <v>46701.21</v>
       </c>
       <c r="D9" t="n">
-        <v>25396</v>
+        <v>27451.93</v>
       </c>
       <c r="E9" t="n">
-        <v>24150</v>
+        <v>40537.63</v>
       </c>
       <c r="F9" t="n">
-        <v>10714</v>
+        <v>65700.95</v>
       </c>
       <c r="G9" t="n">
-        <v>21374</v>
+        <v>42908</v>
       </c>
       <c r="H9" t="n">
-        <v>26580</v>
+        <v>30080.17</v>
       </c>
       <c r="I9" t="n">
-        <v>25366</v>
+        <v>49402</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-10857</v>
+        <v>-44087.89</v>
       </c>
       <c r="M9" t="n">
-        <v>2430</v>
+        <v>19249.28</v>
       </c>
       <c r="N9" t="n">
-        <v>1246</v>
+        <v>-13085.7</v>
       </c>
       <c r="O9" t="n">
-        <v>13436</v>
+        <v>-25163.32</v>
       </c>
       <c r="P9" t="n">
-        <v>-10660</v>
+        <v>22792.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>-5206</v>
+        <v>12827.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1214</v>
+        <v>-19321.83</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002006184666895044</v>
+        <v>0.0003089635519883409</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002981020249241575</v>
+        <v>0.005003135652773777</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00276701909402358</v>
+        <v>0.00299102277830362</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002063298175845943</v>
+        <v>0.003463404473379617</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001082503161315397</v>
+        <v>0.006638182385329927</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001457673370106671</v>
+        <v>0.002926258489966176</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001952213912042905</v>
+        <v>0.002209289930421957</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002226798945921552</v>
+        <v>0.004336841501475066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Dry Stock</t>
+          <t xml:space="preserve"> Other Services</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445446</v>
+        <v>24500</v>
       </c>
       <c r="C10" t="n">
-        <v>716298</v>
+        <v>12000</v>
       </c>
       <c r="D10" t="n">
-        <v>612997</v>
+        <v>125235.42</v>
       </c>
       <c r="E10" t="n">
-        <v>708090</v>
+        <v>362417.48</v>
       </c>
       <c r="F10" t="n">
-        <v>550789</v>
+        <v>176543.58</v>
       </c>
       <c r="G10" t="n">
-        <v>759092</v>
+        <v>243721.81</v>
       </c>
       <c r="H10" t="n">
-        <v>762870</v>
+        <v>284407.4</v>
       </c>
       <c r="I10" t="n">
-        <v>590607</v>
+        <v>208319.27</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-270852</v>
+        <v>12500</v>
       </c>
       <c r="M10" t="n">
-        <v>103301</v>
+        <v>-113235.42</v>
       </c>
       <c r="N10" t="n">
-        <v>-95093</v>
+        <v>-237182.06</v>
       </c>
       <c r="O10" t="n">
-        <v>157301</v>
+        <v>185873.9</v>
       </c>
       <c r="P10" t="n">
-        <v>-208303</v>
+        <v>-67178.23000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3778</v>
+        <v>-40685.59000000003</v>
       </c>
       <c r="R10" t="n">
-        <v>172263</v>
+        <v>76088.13000000003</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05266350021390357</v>
+        <v>0.002896548078197217</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07673754195684761</v>
+        <v>0.001285568999888554</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06678903778465792</v>
+        <v>0.0136450148995142</v>
       </c>
       <c r="V10" t="n">
-        <v>0.06049692775713265</v>
+        <v>0.03096378158917944</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05564969513886002</v>
+        <v>0.01783731411797066</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05176888714611271</v>
+        <v>0.016621446250173</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05603030199699666</v>
+        <v>0.02088879168427206</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05184747477150083</v>
+        <v>0.01828767369120662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outsourced Food</t>
+          <t>Total Income</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82924</v>
+        <v>8458343.98</v>
       </c>
       <c r="C11" t="n">
-        <v>81510</v>
+        <v>9334388.120000001</v>
       </c>
       <c r="D11" t="n">
-        <v>105995</v>
+        <v>9178107.970000001</v>
       </c>
       <c r="E11" t="n">
-        <v>117372</v>
+        <v>11704561.31</v>
       </c>
       <c r="F11" t="n">
-        <v>107006</v>
+        <v>9897430.68</v>
       </c>
       <c r="G11" t="n">
-        <v>267554</v>
+        <v>14663092.87</v>
       </c>
       <c r="H11" t="n">
-        <v>262511</v>
+        <v>13615311.23</v>
       </c>
       <c r="I11" t="n">
-        <v>221170</v>
+        <v>11391239.45</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="L11" t="n">
-        <v>1414</v>
+        <v>-876044.1400000006</v>
       </c>
       <c r="M11" t="n">
-        <v>-24485</v>
+        <v>156280.1500000004</v>
       </c>
       <c r="N11" t="n">
-        <v>-11377</v>
+        <v>-2526453.34</v>
       </c>
       <c r="O11" t="n">
-        <v>10366</v>
+        <v>1807130.630000001</v>
       </c>
       <c r="P11" t="n">
-        <v>-160548</v>
+        <v>-4765662.190000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>5043</v>
+        <v>1047781.640000001</v>
       </c>
       <c r="R11" t="n">
-        <v>41341</v>
+        <v>2224071.780000001</v>
       </c>
       <c r="S11" t="n">
-        <v>0.009803810319854124</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0.008732227431743003</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01154867651878364</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01002788544494368</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01081149274591333</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01824676433356041</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01928057284666272</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01941579763736772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>375534</v>
-      </c>
-      <c r="C12" t="n">
-        <v>396872</v>
-      </c>
-      <c r="D12" t="n">
-        <v>334875</v>
-      </c>
-      <c r="E12" t="n">
-        <v>433301</v>
-      </c>
-      <c r="F12" t="n">
-        <v>383984</v>
-      </c>
-      <c r="G12" t="n">
-        <v>526175</v>
-      </c>
-      <c r="H12" t="n">
-        <v>503954</v>
-      </c>
-      <c r="I12" t="n">
-        <v>462482</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>-21338</v>
-      </c>
-      <c r="M12" t="n">
-        <v>61997</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-98426</v>
-      </c>
-      <c r="O12" t="n">
-        <v>49317</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-142191</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>22221</v>
-      </c>
-      <c r="R12" t="n">
-        <v>41472</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0443980524897026</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.04251719501031418</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.03648627811904025</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0370198411135496</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.03879633133232513</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.03588431203873293</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.03701377012150753</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.04059979618811366</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>281167</v>
-      </c>
-      <c r="C13" t="n">
-        <v>329623</v>
-      </c>
-      <c r="D13" t="n">
-        <v>327724</v>
-      </c>
-      <c r="E13" t="n">
-        <v>403361</v>
-      </c>
-      <c r="F13" t="n">
-        <v>362322</v>
-      </c>
-      <c r="G13" t="n">
-        <v>432362</v>
-      </c>
-      <c r="H13" t="n">
-        <v>466465</v>
-      </c>
-      <c r="I13" t="n">
-        <v>413833</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>-48456</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1899</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-75637</v>
-      </c>
-      <c r="O13" t="n">
-        <v>41039</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-70040</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-34103</v>
-      </c>
-      <c r="R13" t="n">
-        <v>52632</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.03324137687765212</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.03531275920418873</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.03570714150140903</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.03446186399616544</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.03660768251018456</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.02948641216646676</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.03426032590222324</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.03632905811667404</v>
-      </c>
+          <t xml:space="preserve"> Supplies and Materials</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beverages &amp; Soft Drinks</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>261861</v>
-      </c>
-      <c r="C14" t="n">
-        <v>310977</v>
-      </c>
-      <c r="D14" t="n">
-        <v>282847</v>
-      </c>
-      <c r="E14" t="n">
-        <v>337961</v>
-      </c>
-      <c r="F14" t="n">
-        <v>253052</v>
-      </c>
-      <c r="G14" t="n">
-        <v>341478</v>
-      </c>
-      <c r="H14" t="n">
-        <v>321123</v>
-      </c>
-      <c r="I14" t="n">
-        <v>268823</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>-49116</v>
-      </c>
-      <c r="M14" t="n">
-        <v>28130</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-55114</v>
-      </c>
-      <c r="O14" t="n">
-        <v>84909</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-88426</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>20355</v>
-      </c>
-      <c r="R14" t="n">
-        <v>52300</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.03095889699203271</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0333151992398619</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.03081757165251565</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.02887429874977518</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.02556744352969795</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0232882655131134</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.02358543220756034</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.02359910009617084</v>
-      </c>
+          <t xml:space="preserve"> Meat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Consumables</t>
+          <t xml:space="preserve"> Mutton</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>198072</v>
+        <v>620143</v>
       </c>
       <c r="C15" t="n">
-        <v>194508</v>
+        <v>697655</v>
       </c>
       <c r="D15" t="n">
-        <v>155321</v>
+        <v>726473</v>
       </c>
       <c r="E15" t="n">
-        <v>182224</v>
+        <v>831917</v>
       </c>
       <c r="F15" t="n">
-        <v>165021</v>
+        <v>643501</v>
       </c>
       <c r="G15" t="n">
-        <v>335837</v>
+        <v>927674</v>
       </c>
       <c r="H15" t="n">
-        <v>333080</v>
+        <v>902742</v>
       </c>
       <c r="I15" t="n">
-        <v>203024</v>
+        <v>762178</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1668,80 +1424,80 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3564</v>
+        <v>-77512</v>
       </c>
       <c r="M15" t="n">
-        <v>39187</v>
+        <v>-28818</v>
       </c>
       <c r="N15" t="n">
-        <v>-26903</v>
+        <v>-105444</v>
       </c>
       <c r="O15" t="n">
-        <v>17203</v>
+        <v>188416</v>
       </c>
       <c r="P15" t="n">
-        <v>-170816</v>
+        <v>-284173</v>
       </c>
       <c r="Q15" t="n">
-        <v>2757</v>
+        <v>24932</v>
       </c>
       <c r="R15" t="n">
-        <v>130056</v>
+        <v>140564</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0234173498344767</v>
+        <v>0.07331730672887578</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02083778791919357</v>
+        <v>0.07474030338477075</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0169229867972451</v>
+        <v>0.07915280604396724</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01556863133728162</v>
+        <v>0.07107630760063061</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01667311500685347</v>
+        <v>0.06501697468822283</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02290355813589006</v>
+        <v>0.06326591587631403</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02446363468108544</v>
+        <v>0.06630344211382379</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01782281909630124</v>
+        <v>0.06690913691573748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disposable Material</t>
+          <t xml:space="preserve"> Chicken</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88366</v>
+        <v>1014477</v>
       </c>
       <c r="C16" t="n">
-        <v>181036</v>
+        <v>1167824</v>
       </c>
       <c r="D16" t="n">
-        <v>125417</v>
+        <v>1127693</v>
       </c>
       <c r="E16" t="n">
-        <v>137657</v>
+        <v>1155256</v>
       </c>
       <c r="F16" t="n">
-        <v>124642</v>
+        <v>1089110</v>
       </c>
       <c r="G16" t="n">
-        <v>126217</v>
+        <v>1495680</v>
       </c>
       <c r="H16" t="n">
-        <v>155125</v>
+        <v>1831514</v>
       </c>
       <c r="I16" t="n">
-        <v>93154</v>
+        <v>1686495</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1750,80 +1506,80 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-92670</v>
+        <v>-153347</v>
       </c>
       <c r="M16" t="n">
-        <v>55619</v>
+        <v>40131</v>
       </c>
       <c r="N16" t="n">
-        <v>-12240</v>
+        <v>-27563</v>
       </c>
       <c r="O16" t="n">
-        <v>13015</v>
+        <v>66146</v>
       </c>
       <c r="P16" t="n">
-        <v>-1575</v>
+        <v>-406570</v>
       </c>
       <c r="Q16" t="n">
-        <v>-28908</v>
+        <v>-335834</v>
       </c>
       <c r="R16" t="n">
-        <v>61971</v>
+        <v>145019</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01044719867257042</v>
+        <v>0.1199380165193991</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01939452245531869</v>
+        <v>0.1251098609771542</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01366479893349958</v>
+        <v>0.1228676981885625</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01176097047587681</v>
+        <v>0.09870134979027248</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01259336933289842</v>
+        <v>0.110039669406404</v>
       </c>
       <c r="X16" t="n">
-        <v>0.008607801990958813</v>
+        <v>0.1020030366894894</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01139342299118343</v>
+        <v>0.1345187024417362</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.008177687810785155</v>
+        <v>0.1480519312584549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Salaries- Operation Staff</t>
+          <t xml:space="preserve"> Beef</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1578434</v>
+        <v>191591</v>
       </c>
       <c r="C17" t="n">
-        <v>1633000</v>
+        <v>183108</v>
       </c>
       <c r="D17" t="n">
-        <v>1567716</v>
+        <v>222281</v>
       </c>
       <c r="E17" t="n">
-        <v>1588000</v>
+        <v>144761</v>
       </c>
       <c r="F17" t="n">
-        <v>1569734</v>
+        <v>123246</v>
       </c>
       <c r="G17" t="n">
-        <v>1583200</v>
+        <v>186171</v>
       </c>
       <c r="H17" t="n">
-        <v>1690334</v>
+        <v>160691</v>
       </c>
       <c r="I17" t="n">
-        <v>1672133</v>
+        <v>130090</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1832,292 +1588,280 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-54566</v>
+        <v>8483</v>
       </c>
       <c r="M17" t="n">
-        <v>65284</v>
+        <v>-39173</v>
       </c>
       <c r="N17" t="n">
-        <v>-20284</v>
+        <v>77520</v>
       </c>
       <c r="O17" t="n">
-        <v>18266</v>
+        <v>21515</v>
       </c>
       <c r="P17" t="n">
-        <v>-13466</v>
+        <v>-62925</v>
       </c>
       <c r="Q17" t="n">
-        <v>-107134</v>
+        <v>25480</v>
       </c>
       <c r="R17" t="n">
-        <v>18201</v>
+        <v>30601</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1866126518065774</v>
+        <v>0.02265112419795441</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1749445147348341</v>
+        <v>0.01961649736929945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1708103680109573</v>
+        <v>0.02421860809728522</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1356736026187726</v>
+        <v>0.01236791334300764</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1586001509636236</v>
+        <v>0.01245232262642126</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1079717638042894</v>
+        <v>0.01269657102021751</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1241494940105016</v>
+        <v>0.0118022274544803</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1467911378159995</v>
+        <v>0.01142017956614897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wages &amp; Allowance</t>
+          <t xml:space="preserve"> Fish &amp; Prawns</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>1486</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12000</v>
+      </c>
       <c r="E18" t="n">
-        <v>2360</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>23500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>48901</v>
+      </c>
       <c r="G18" t="n">
-        <v>5500</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+        <v>137338</v>
+      </c>
+      <c r="H18" t="n">
+        <v>132789</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77790</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1486</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-11500</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-25401</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-88437</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4549</v>
+      </c>
+      <c r="R18" t="n">
+        <v>54999</v>
+      </c>
       <c r="S18" t="n">
-        <v>0.00189162323474104</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+        <v>0.000175684507926574</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.001307459014344108</v>
+      </c>
       <c r="V18" t="n">
-        <v>0.0002016307948238685</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
+        <v>0.002007764270491911</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.004940777215930953</v>
+      </c>
       <c r="X18" t="n">
-        <v>0.0003750913977536582</v>
-      </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+        <v>0.009366236797216711</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.009752916973900126</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.006828932035135123</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restaurant Rent</t>
+          <t>Total 2501 Meat</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>805983</v>
+        <v>1827697</v>
       </c>
       <c r="C19" t="n">
-        <v>908077</v>
+        <v>2048587</v>
       </c>
       <c r="D19" t="n">
-        <v>837587</v>
+        <v>2088447</v>
       </c>
       <c r="E19" t="n">
-        <v>1092320</v>
+        <v>2155434</v>
       </c>
       <c r="F19" t="n">
-        <v>925668</v>
+        <v>1904758</v>
       </c>
       <c r="G19" t="n">
-        <v>1366722</v>
+        <v>2746863</v>
       </c>
       <c r="H19" t="n">
-        <v>1293643</v>
+        <v>3027736</v>
       </c>
       <c r="I19" t="n">
-        <v>1106060</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>2656553</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="L19" t="n">
-        <v>-102094</v>
+        <v>-220890</v>
       </c>
       <c r="M19" t="n">
-        <v>70490</v>
+        <v>-39860</v>
       </c>
       <c r="N19" t="n">
-        <v>-254733</v>
+        <v>-66987</v>
       </c>
       <c r="O19" t="n">
-        <v>166652</v>
+        <v>250676</v>
       </c>
       <c r="P19" t="n">
-        <v>-441054</v>
+        <v>-842105</v>
       </c>
       <c r="Q19" t="n">
-        <v>73079</v>
+        <v>-280873</v>
       </c>
       <c r="R19" t="n">
-        <v>187583</v>
+        <v>371183</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09528851060039296</v>
+        <v>0.2160821319541559</v>
       </c>
       <c r="T19" t="n">
-        <v>0.09728297005931653</v>
+        <v>0.2194666617312244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09125922278728651</v>
+        <v>0.2275465713441591</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09332430076356274</v>
+        <v>0.1841533350044026</v>
       </c>
       <c r="W19" t="n">
-        <v>0.09352609075308017</v>
+        <v>0.192449743936979</v>
       </c>
       <c r="X19" t="n">
-        <v>0.09320830278557732</v>
+        <v>0.1873317603832376</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0950138397974763</v>
+        <v>0.2223772889839405</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.09709742340637041</v>
+        <v>0.2332101797754765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Utilitites</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1194670</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1314699</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1534539</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1406169</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1009609</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1386086</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1940185</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1688023</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>-120029</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-219840</v>
-      </c>
-      <c r="N20" t="n">
-        <v>128370</v>
-      </c>
-      <c r="O20" t="n">
-        <v>396560</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-376477</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-554099</v>
-      </c>
-      <c r="R20" t="n">
-        <v>252162</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.1412415956155049</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.1408446898820402</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.1671955707010494</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.1201385479350358</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.1020071807161169</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.09452889729941402</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.1425002313369813</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.1481860694272387</v>
-      </c>
+          <t xml:space="preserve"> Dry Stock</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+          <t xml:space="preserve"> Oil</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2190</v>
+        <v>243070</v>
       </c>
       <c r="C21" t="n">
-        <v>28040</v>
+        <v>242376</v>
       </c>
       <c r="D21" t="n">
-        <v>52150</v>
+        <v>261119</v>
       </c>
       <c r="E21" t="n">
-        <v>41730</v>
+        <v>294305</v>
       </c>
       <c r="F21" t="n">
-        <v>42820</v>
+        <v>244105</v>
       </c>
       <c r="G21" t="n">
-        <v>46342</v>
+        <v>299287</v>
       </c>
       <c r="H21" t="n">
-        <v>49300</v>
+        <v>295960</v>
       </c>
       <c r="I21" t="n">
-        <v>33920</v>
+        <v>248763</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2126,80 +1870,80 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-25850</v>
+        <v>694</v>
       </c>
       <c r="M21" t="n">
-        <v>-24110</v>
+        <v>-18743</v>
       </c>
       <c r="N21" t="n">
-        <v>10420</v>
+        <v>-33186</v>
       </c>
       <c r="O21" t="n">
-        <v>-1090</v>
+        <v>50200</v>
       </c>
       <c r="P21" t="n">
-        <v>-3522</v>
+        <v>-55182</v>
       </c>
       <c r="Q21" t="n">
-        <v>-2958</v>
+        <v>3327</v>
       </c>
       <c r="R21" t="n">
-        <v>15380</v>
+        <v>47197</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0002589159302551798</v>
+        <v>0.02873730372928153</v>
       </c>
       <c r="T21" t="n">
-        <v>0.003003946229739588</v>
+        <v>0.02596592265974901</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005681998966503768</v>
+        <v>0.02845019919720992</v>
       </c>
       <c r="V21" t="n">
-        <v>0.003565276723728828</v>
+        <v>0.02514447079264349</v>
       </c>
       <c r="W21" t="n">
-        <v>0.004326375337644699</v>
+        <v>0.02466347155057822</v>
       </c>
       <c r="X21" t="n">
-        <v>0.003160451919036369</v>
+        <v>0.02041090530172711</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.003620923471170625</v>
+        <v>0.02173729230279226</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.002977726888183358</v>
+        <v>0.02183809769708598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Laundry</t>
+          <t xml:space="preserve"> Flour</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50680</v>
+        <v>174980</v>
       </c>
       <c r="C22" t="n">
-        <v>51560</v>
+        <v>191462</v>
       </c>
       <c r="D22" t="n">
-        <v>51920</v>
+        <v>197629</v>
       </c>
       <c r="E22" t="n">
-        <v>50000</v>
+        <v>199164</v>
       </c>
       <c r="F22" t="n">
-        <v>52220</v>
+        <v>171683</v>
       </c>
       <c r="G22" t="n">
-        <v>50000</v>
+        <v>215243</v>
       </c>
       <c r="H22" t="n">
-        <v>55400</v>
+        <v>200367</v>
       </c>
       <c r="I22" t="n">
-        <v>50000</v>
+        <v>153613</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2208,75 +1952,81 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-880</v>
+        <v>-16482</v>
       </c>
       <c r="M22" t="n">
-        <v>-360</v>
+        <v>-6167</v>
       </c>
       <c r="N22" t="n">
-        <v>1920</v>
+        <v>-1535</v>
       </c>
       <c r="O22" t="n">
-        <v>-2220</v>
+        <v>27481</v>
       </c>
       <c r="P22" t="n">
-        <v>2220</v>
+        <v>-43560</v>
       </c>
       <c r="Q22" t="n">
-        <v>-5400</v>
+        <v>14876</v>
       </c>
       <c r="R22" t="n">
-        <v>5400</v>
+        <v>46754</v>
       </c>
       <c r="S22" t="n">
-        <v>0.005991716596042243</v>
+        <v>0.02068726460093669</v>
       </c>
       <c r="T22" t="n">
-        <v>0.005523661469521153</v>
+        <v>0.02051146765472186</v>
       </c>
       <c r="U22" t="n">
-        <v>0.005656939335395506</v>
+        <v>0.02153265146215097</v>
       </c>
       <c r="V22" t="n">
-        <v>0.004271838873387045</v>
+        <v>0.01701593034758515</v>
       </c>
       <c r="W22" t="n">
-        <v>0.005276116770943628</v>
+        <v>0.01734621898862342</v>
       </c>
       <c r="X22" t="n">
-        <v>0.003409921797760529</v>
+        <v>0.01467923595030739</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.004068948484844881</v>
+        <v>0.01471629965817535</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.004389337983760845</v>
+        <v>0.0134851875139891</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Direct Cost</t>
+          <t xml:space="preserve"> Rice</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15000</v>
+        <v>68823</v>
       </c>
       <c r="C23" t="n">
-        <v>6000</v>
+        <v>70091</v>
       </c>
       <c r="D23" t="n">
-        <v>37615</v>
+        <v>62542</v>
       </c>
       <c r="E23" t="n">
-        <v>167500</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>16533</v>
+      </c>
+      <c r="F23" t="n">
+        <v>73056</v>
+      </c>
+      <c r="G23" t="n">
+        <v>105056</v>
+      </c>
       <c r="H23" t="n">
-        <v>47000</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>104871</v>
+      </c>
+      <c r="I23" t="n">
+        <v>83432</v>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
@@ -2284,36 +2034,5558 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
+        <v>-1268</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7549</v>
+      </c>
+      <c r="N23" t="n">
+        <v>46009</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-56523</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>185</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21439</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.00813669911778641</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.007508901397599053</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.006814258472925766</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.00141252624187416</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.007381309590541128</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.007164654887710603</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.007702431345743097</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.007324224933222698</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sugar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16969</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27826</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25396</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24150</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10714</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>26580</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25366</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-10857</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1246</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13436</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-10660</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-5206</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1214</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.002006184666895044</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.002981020249241575</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.00276701909402358</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.002063298175845943</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.001082503161315397</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.001457673370106671</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.001952213912042905</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.002226798945921552</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Dry Stock</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>445446</v>
+      </c>
+      <c r="C25" t="n">
+        <v>716298</v>
+      </c>
+      <c r="D25" t="n">
+        <v>612997</v>
+      </c>
+      <c r="E25" t="n">
+        <v>708090</v>
+      </c>
+      <c r="F25" t="n">
+        <v>550789</v>
+      </c>
+      <c r="G25" t="n">
+        <v>759092</v>
+      </c>
+      <c r="H25" t="n">
+        <v>762870</v>
+      </c>
+      <c r="I25" t="n">
+        <v>590607</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>-270852</v>
+      </c>
+      <c r="M25" t="n">
+        <v>103301</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-95093</v>
+      </c>
+      <c r="O25" t="n">
+        <v>157301</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-208303</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-3778</v>
+      </c>
+      <c r="R25" t="n">
+        <v>172263</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.05266350021390357</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.07673754195684761</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.06678903778465792</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.06049692775713265</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.05564969513886002</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.05176888714611271</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.05603030199699666</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.05184747477150083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total 2502 Dry Stock</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>949288</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1248053</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1159683</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1242242</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1050347</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1400052</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1390648</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1101781</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>-298765</v>
+      </c>
+      <c r="M26" t="n">
+        <v>88370</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-82559</v>
+      </c>
+      <c r="O26" t="n">
+        <v>191895</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-349705</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9404</v>
+      </c>
+      <c r="R26" t="n">
+        <v>288867</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1122309523288032</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1337048539181591</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1263531660109682</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1061331533150814</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1061231984299182</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.09548135665596448</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1021385392157503</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.09672178386172016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Food</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>82924</v>
+      </c>
+      <c r="C27" t="n">
+        <v>81510</v>
+      </c>
+      <c r="D27" t="n">
+        <v>105995</v>
+      </c>
+      <c r="E27" t="n">
+        <v>117372</v>
+      </c>
+      <c r="F27" t="n">
+        <v>107006</v>
+      </c>
+      <c r="G27" t="n">
+        <v>267554</v>
+      </c>
+      <c r="H27" t="n">
+        <v>262511</v>
+      </c>
+      <c r="I27" t="n">
+        <v>221170</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1414</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-24485</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-11377</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10366</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-160548</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5043</v>
+      </c>
+      <c r="R27" t="n">
+        <v>41341</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.009803810319854124</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.008732227431743003</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01154867651878364</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01002788544494368</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01081149274591333</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.01824676433356041</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.01928057284666272</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01941579763736772</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>375534</v>
+      </c>
+      <c r="C28" t="n">
+        <v>396872</v>
+      </c>
+      <c r="D28" t="n">
+        <v>334875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>433301</v>
+      </c>
+      <c r="F28" t="n">
+        <v>383984</v>
+      </c>
+      <c r="G28" t="n">
+        <v>526175</v>
+      </c>
+      <c r="H28" t="n">
+        <v>503954</v>
+      </c>
+      <c r="I28" t="n">
+        <v>462482</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-21338</v>
+      </c>
+      <c r="M28" t="n">
+        <v>61997</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-98426</v>
+      </c>
+      <c r="O28" t="n">
+        <v>49317</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-142191</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22221</v>
+      </c>
+      <c r="R28" t="n">
+        <v>41472</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0443980524897026</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.04251719501031418</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.03648627811904025</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0370198411135496</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03879633133232513</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.03588431203873293</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.03701377012150753</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.04059979618811366</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>281167</v>
+      </c>
+      <c r="C29" t="n">
+        <v>329623</v>
+      </c>
+      <c r="D29" t="n">
+        <v>327724</v>
+      </c>
+      <c r="E29" t="n">
+        <v>403361</v>
+      </c>
+      <c r="F29" t="n">
+        <v>362322</v>
+      </c>
+      <c r="G29" t="n">
+        <v>432362</v>
+      </c>
+      <c r="H29" t="n">
+        <v>466465</v>
+      </c>
+      <c r="I29" t="n">
+        <v>413833</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>-48456</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1899</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-75637</v>
+      </c>
+      <c r="O29" t="n">
+        <v>41039</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-70040</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-34103</v>
+      </c>
+      <c r="R29" t="n">
+        <v>52632</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.03324137687765212</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.03531275920418873</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.03570714150140903</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.03446186399616544</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.03660768251018456</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.02948641216646676</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.03426032590222324</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.03632905811667404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages &amp; Soft Drinks</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>261861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>310977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>282847</v>
+      </c>
+      <c r="E30" t="n">
+        <v>337961</v>
+      </c>
+      <c r="F30" t="n">
+        <v>253052</v>
+      </c>
+      <c r="G30" t="n">
+        <v>341478</v>
+      </c>
+      <c r="H30" t="n">
+        <v>321123</v>
+      </c>
+      <c r="I30" t="n">
+        <v>268823</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-49116</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28130</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-55114</v>
+      </c>
+      <c r="O30" t="n">
+        <v>84909</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-88426</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20355</v>
+      </c>
+      <c r="R30" t="n">
+        <v>52300</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.03095889699203271</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0333151992398619</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.03081757165251565</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.02887429874977518</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02556744352969795</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.0232882655131134</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.02358543220756034</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.02359910009617084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Consumables</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>198072</v>
+      </c>
+      <c r="C31" t="n">
+        <v>194508</v>
+      </c>
+      <c r="D31" t="n">
+        <v>155321</v>
+      </c>
+      <c r="E31" t="n">
+        <v>182224</v>
+      </c>
+      <c r="F31" t="n">
+        <v>165021</v>
+      </c>
+      <c r="G31" t="n">
+        <v>335837</v>
+      </c>
+      <c r="H31" t="n">
+        <v>333080</v>
+      </c>
+      <c r="I31" t="n">
+        <v>203024</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>3564</v>
+      </c>
+      <c r="M31" t="n">
+        <v>39187</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-26903</v>
+      </c>
+      <c r="O31" t="n">
+        <v>17203</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-170816</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2757</v>
+      </c>
+      <c r="R31" t="n">
+        <v>130056</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0234173498344767</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.02083778791919357</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0169229867972451</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.01556863133728162</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.01667311500685347</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.02290355813589006</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.02446363468108544</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.01782281909630124</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Disposable Material</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>88366</v>
+      </c>
+      <c r="C32" t="n">
+        <v>181036</v>
+      </c>
+      <c r="D32" t="n">
+        <v>125417</v>
+      </c>
+      <c r="E32" t="n">
+        <v>137657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>124642</v>
+      </c>
+      <c r="G32" t="n">
+        <v>126217</v>
+      </c>
+      <c r="H32" t="n">
+        <v>155125</v>
+      </c>
+      <c r="I32" t="n">
+        <v>93154</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-92670</v>
+      </c>
+      <c r="M32" t="n">
+        <v>55619</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-12240</v>
+      </c>
+      <c r="O32" t="n">
+        <v>13015</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1575</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-28908</v>
+      </c>
+      <c r="R32" t="n">
+        <v>61971</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.01044719867257042</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01939452245531869</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01366479893349958</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.01176097047587681</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.01259336933289842</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.008607801990958813</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.01139342299118343</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.008177687810785155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Total 25 Supplies and Materials</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4064909</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4791166</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4580309</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5009552</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4351132</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6176538</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6460642</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5420820</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>-726257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>210857</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-429243</v>
+      </c>
+      <c r="O33" t="n">
+        <v>658420</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-1825406</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-284104</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1039822</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4805797694692478</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.5132812069100036</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.4990471908776205</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.4279999794370764</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.4396223768247701</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.4212302312179245</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.4745129869499135</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.4758762225826093</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of Labour</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1578434</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1633000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1567716</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1588000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1569734</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1583200</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1690334</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1672133</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>-54566</v>
+      </c>
+      <c r="M35" t="n">
+        <v>65284</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-20284</v>
+      </c>
+      <c r="O35" t="n">
+        <v>18266</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-13466</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-107134</v>
+      </c>
+      <c r="R35" t="n">
+        <v>18201</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.1866126518065774</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1749445147348341</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1708103680109573</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1356736026187726</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.1586001509636236</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.1079717638042894</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.1241494940105016</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.1467911378159995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wages &amp; Allowance</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>2360</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0.00189162323474104</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0.0002016307948238685</v>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>0.0003750913977536582</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Total 26 Cost of Labour</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1594434</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1633000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1567716</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1590360</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1569734</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1588700</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1690334</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1672133</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-38566</v>
+      </c>
+      <c r="M37" t="n">
+        <v>65284</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-22644</v>
+      </c>
+      <c r="O37" t="n">
+        <v>20626</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-18966</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-101634</v>
+      </c>
+      <c r="R37" t="n">
+        <v>18201</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.1885042750413184</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1749445147348341</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1708103680109573</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1358752334135964</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.1586001509636236</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.1083468552020431</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1241494940105016</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.1467911378159995</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of Overheads</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Restaurant Rent</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>805983</v>
+      </c>
+      <c r="C39" t="n">
+        <v>908077</v>
+      </c>
+      <c r="D39" t="n">
+        <v>837587</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1092320</v>
+      </c>
+      <c r="F39" t="n">
+        <v>925668</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1366722</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1293643</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1106060</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-102094</v>
+      </c>
+      <c r="M39" t="n">
+        <v>70490</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-254733</v>
+      </c>
+      <c r="O39" t="n">
+        <v>166652</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-441054</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>73079</v>
+      </c>
+      <c r="R39" t="n">
+        <v>187583</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.09528851060039296</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.09728297005931653</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.09125922278728651</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.09332430076356274</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.09352609075308017</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.09320830278557732</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0950138397974763</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.09709742340637041</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilitites</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1194670</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1314699</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1534539</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1406169</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1009609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1386086</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1940185</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1688023</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-120029</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-219840</v>
+      </c>
+      <c r="N40" t="n">
+        <v>128370</v>
+      </c>
+      <c r="O40" t="n">
+        <v>396560</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-376477</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-554099</v>
+      </c>
+      <c r="R40" t="n">
+        <v>252162</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.1412415956155049</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1408446898820402</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1671955707010494</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1201385479350358</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.1020071807161169</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.09452889729941402</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.1425002313369813</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.1481860694272387</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2190</v>
+      </c>
+      <c r="C41" t="n">
+        <v>28040</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52150</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41730</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42820</v>
+      </c>
+      <c r="G41" t="n">
+        <v>46342</v>
+      </c>
+      <c r="H41" t="n">
+        <v>49300</v>
+      </c>
+      <c r="I41" t="n">
+        <v>33920</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-25850</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-24110</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10420</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1090</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-3522</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-2958</v>
+      </c>
+      <c r="R41" t="n">
+        <v>15380</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0002589159302551798</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.003003946229739588</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.005681998966503768</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.003565276723728828</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.004326375337644699</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.003160451919036369</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.003620923471170625</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.002977726888183358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>14150</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3380</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2280</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>2280</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1100</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-1010</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>0.001541712087747427</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>0.0005718655864331853</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0002305107135286118</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0001674585297011973</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.0002888184393314637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laundry</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50680</v>
+      </c>
+      <c r="C43" t="n">
+        <v>51560</v>
+      </c>
+      <c r="D43" t="n">
+        <v>51920</v>
+      </c>
+      <c r="E43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>52220</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>55400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>-880</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-360</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1920</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-2220</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2220</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-5400</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.005991716596042243</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.005523661469521153</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.005656939335395506</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.004271838873387045</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.005276116770943628</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.003409921797760529</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.004068948484844881</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.004389337983760845</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Direct Cost</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>37615</v>
+      </c>
+      <c r="E44" t="n">
+        <v>167500</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>47000</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>9000</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M44" t="n">
         <v>-31615</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N44" t="n">
         <v>-129885</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
         <v>0.001773396782569725</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T44" t="n">
         <v>0.0006427844999442769</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U44" t="n">
         <v>0.004098339235379468</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V44" t="n">
         <v>0.0143106602258466</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
         <v>0.003451996006998365</v>
       </c>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Total 27 Cost of Overheads</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2068523</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2308376</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2527961</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2757719</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2035977</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2852530</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3387808</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2881293</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-239853</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-219585</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-229758</v>
+      </c>
+      <c r="O45" t="n">
+        <v>721742</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-816553</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-535278</v>
+      </c>
+      <c r="R45" t="n">
+        <v>506515</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.244554135524765</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2472980521405617</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.2754337831133621</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.235610624521561</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.2057076291642186</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.1945380845153168</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.2488233976271727</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.2529393761448848</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Total Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7727866</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8732542</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8675986</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9357631</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7956843</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10617768</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11538784</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9974246</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>-1004676</v>
+      </c>
+      <c r="M46" t="n">
+        <v>56556</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-681645</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1400788</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-2660925</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-921016</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1564538</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9136381800353311</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.9355237737853993</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.9452913420019398</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.7994858373722338</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.8039301569526123</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.7241151709352843</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.8474858785875877</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.8756067365434935</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>730477.9800000004</v>
+      </c>
+      <c r="C47" t="n">
+        <v>601846.120000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>502121.9700000007</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2346930.310000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1940587.68</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4045324.870000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2076527.23</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1416993.449999999</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>128631.8599999994</v>
+      </c>
+      <c r="M47" t="n">
+        <v>99724.15000000037</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1844808.34</v>
+      </c>
+      <c r="O47" t="n">
+        <v>406342.6300000008</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-2104737.190000001</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1968797.640000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>659533.7800000012</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.08636181996466882</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.06447622621460065</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0547086579980602</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2005141626277662</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.1960698430473877</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.2758848290647156</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1525141214124123</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.1243932634565064</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.0003749576249674949</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Others</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7732</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>11990</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20190</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>24968</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>-980</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-7220</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9700</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.003866004986002</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0008283349589281915</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>0.001211425509069592</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0008845337143390812</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.001482889348538234</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.0009208831089930254</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11232</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11990</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12970</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20190</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10490</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>21468</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11232</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-11990</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-980</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-7220</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9700</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.003866004986002</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.001203292583895686</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.001211425509069592</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0008845337143390812</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.001482889348538234</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.0009208831089930254</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries - Non Operation Staff</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C55" t="n">
+        <v>169500</v>
+      </c>
+      <c r="D55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="E55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="H55" t="n">
+        <v>164500</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>149500</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.02003938364303789</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.01815866212342582</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.01792308398830048</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.01405434989344338</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.01662047508273127</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.01121864271463214</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.01208198602449428</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.001316801395128254</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>122500</v>
+      </c>
+      <c r="C56" t="n">
+        <v>121666</v>
+      </c>
+      <c r="D56" t="n">
+        <v>127500</v>
+      </c>
+      <c r="E56" t="n">
+        <v>139500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>126083</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>105000</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>834</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-5834</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>13417</v>
+      </c>
+      <c r="P56" t="n">
+        <v>26083</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.01448274039098608</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.01303416982837007</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.01389175202740614</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01191843045674986</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0127389626738967</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.006819843595521059</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.00734467235531567</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.009217609765897776</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Admin &amp; HR</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="H57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54500</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.006443341643336666</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.005838625874493849</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.005938043023479489</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.004656304371991879</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.005506479586679965</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.003716814759558977</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.00400284643364704</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.004784378402299322</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total 2801 Salaries - Non Operation Staff</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>346500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>345666</v>
+      </c>
+      <c r="D58" t="n">
+        <v>346500</v>
+      </c>
+      <c r="E58" t="n">
+        <v>358500</v>
+      </c>
+      <c r="F58" t="n">
+        <v>345083</v>
+      </c>
+      <c r="G58" t="n">
+        <v>319000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>319000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>174500</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>834</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-834</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>13417</v>
+      </c>
+      <c r="P58" t="n">
+        <v>26083</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>144500</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.04096546567736064</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.03703145782628974</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.03775287903918611</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.03062908472218511</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.03486591734330793</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.02175530106971217</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.02342950481345699</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.01531878956332535</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Benefits (Direct &amp; Indirect)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>306849</v>
+      </c>
+      <c r="C59" t="n">
+        <v>401112</v>
+      </c>
+      <c r="D59" t="n">
+        <v>391247</v>
+      </c>
+      <c r="E59" t="n">
+        <v>332457</v>
+      </c>
+      <c r="F59" t="n">
+        <v>251548</v>
+      </c>
+      <c r="G59" t="n">
+        <v>281790</v>
+      </c>
+      <c r="H59" t="n">
+        <v>293731</v>
+      </c>
+      <c r="I59" t="n">
+        <v>462852</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>-94263</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9865</v>
+      </c>
+      <c r="N59" t="n">
+        <v>58790</v>
+      </c>
+      <c r="O59" t="n">
+        <v>80909</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-30242</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-11941</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-169121</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.03627766862231583</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0429714293902748</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.04262828474875743</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.02840405472659274</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.02541548490037012</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.01921763726781879</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.02157357955599227</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0406322772891935</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total 28 Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>653349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>746778</v>
+      </c>
+      <c r="D60" t="n">
+        <v>737747</v>
+      </c>
+      <c r="E60" t="n">
+        <v>690957</v>
+      </c>
+      <c r="F60" t="n">
+        <v>596631</v>
+      </c>
+      <c r="G60" t="n">
+        <v>600790</v>
+      </c>
+      <c r="H60" t="n">
+        <v>612731</v>
+      </c>
+      <c r="I60" t="n">
+        <v>637352</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>-93429</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9031</v>
+      </c>
+      <c r="N60" t="n">
+        <v>46790</v>
+      </c>
+      <c r="O60" t="n">
+        <v>94326</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-4159</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-11941</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-24621</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.07724313429967647</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.08000288721656454</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.08038116378794354</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.05903313944877785</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.06028140224367805</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.04097293833753097</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.04500308436944926</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.05595106685251885</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toll Tax</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>6.537295071720538e-06</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Total 29 Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>60</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-60</v>
+      </c>
+      <c r="N63" t="n">
+        <v>60</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6.537295071720538e-06</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal Services</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>945</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1495</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1420</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1495</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>-235</v>
+      </c>
+      <c r="M65" t="n">
+        <v>105</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-220</v>
+      </c>
+      <c r="O65" t="n">
+        <v>165</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-365</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>75</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-75</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0001117239973018927</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0001264142849890411</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0001171265367016597</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0001106406268207245</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0001141710446412543</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0001019566617530398</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0001042943474454825</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.0001312412057144493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Registration Fee</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>0.01010363226913755</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>0.002203401706594701</v>
+      </c>
+      <c r="Z66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dues &amp; Subscriptions</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>10162</v>
+      </c>
+      <c r="G67" t="n">
+        <v>49253</v>
+      </c>
+      <c r="H67" t="n">
+        <v>43422</v>
+      </c>
+      <c r="I67" t="n">
+        <v>38422</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>-39091</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5831</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="n">
+        <v>0.001026731111189758</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.003358977566101987</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.00318920363012517</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.003372942880241184</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Total 30 Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>945</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F68" t="n">
+        <v>111292</v>
+      </c>
+      <c r="G68" t="n">
+        <v>50748</v>
+      </c>
+      <c r="H68" t="n">
+        <v>74842</v>
+      </c>
+      <c r="I68" t="n">
+        <v>39917</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>-235</v>
+      </c>
+      <c r="M68" t="n">
+        <v>105</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-220</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-109997</v>
+      </c>
+      <c r="P68" t="n">
+        <v>60544</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-24094</v>
+      </c>
+      <c r="R68" t="n">
+        <v>34925</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0001117239973018927</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0001264142849890411</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0001171265367016597</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0001106406268207245</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.01124453442496856</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.003460934227855027</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.005496899684165354</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.003504184085955633</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Communication Charges</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mobile Charges</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>14771</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26706</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21140</v>
+      </c>
+      <c r="E70" t="n">
+        <v>22474</v>
+      </c>
+      <c r="F70" t="n">
+        <v>32805</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28341</v>
+      </c>
+      <c r="H70" t="n">
+        <v>28081</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>-11935</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5566</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1334</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-10331</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4464</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>260</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3081</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.001746322925022494</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.002861033809251977</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.00230330696360287</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.001920106136810009</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.003314496565890573</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.001932811873406623</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.002062457444096194</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.002194668991880423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Postage &amp; Courier</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1690</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="n">
+        <v>0.0001152553567643059</v>
+      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Telephone Bill</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5640</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5680</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8160</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7760</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7490</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7620</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8080</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8330</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-2480</v>
+      </c>
+      <c r="N72" t="n">
+        <v>400</v>
+      </c>
+      <c r="O72" t="n">
+        <v>270</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-130</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-460</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-250</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0006667971902462165</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.0006085026599472489</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0008890721297539932</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0006629893931496694</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0007567620569584025</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0005196720819787046</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0005934495263095062</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.0007312637080945568</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Total 31 Communication Charges</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>20411</v>
+      </c>
+      <c r="C73" t="n">
+        <v>32386</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29300</v>
+      </c>
+      <c r="E73" t="n">
+        <v>30234</v>
+      </c>
+      <c r="F73" t="n">
+        <v>40295</v>
+      </c>
+      <c r="G73" t="n">
+        <v>37651</v>
+      </c>
+      <c r="H73" t="n">
+        <v>36161</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33330</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>-11975</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3086</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-934</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-10061</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2644</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1490</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2831</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.00241312011526871</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.003469536469199226</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.003192379093356863</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.002583095529959679</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.004071258622848976</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.002567739312149634</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.002655906970405699</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.002925932699974979</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equipment Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>27450</v>
+      </c>
+      <c r="C75" t="n">
+        <v>26351</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5830</v>
+      </c>
+      <c r="E75" t="n">
+        <v>43640</v>
+      </c>
+      <c r="F75" t="n">
+        <v>88360</v>
+      </c>
+      <c r="G75" t="n">
+        <v>68010</v>
+      </c>
+      <c r="H75" t="n">
+        <v>74030</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21370</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1099</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20521</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-37810</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-44720</v>
+      </c>
+      <c r="P75" t="n">
+        <v>20350</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-6020</v>
+      </c>
+      <c r="R75" t="n">
+        <v>52660</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.003245316112102596</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.002823002393005274</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0006352071711355123</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.003728460968692213</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.008927569473009938</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.004638175629313871</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.005437260944640191</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.001876003054259385</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vehicle Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C76" t="n">
+        <v>862</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11415</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5910</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1340</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9100</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>676</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-4998</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2560</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-8115</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5505</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4570</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-7760</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.0001818322834394824</v>
+      </c>
+      <c r="T76" t="n">
+        <v>9.234670649199445e-05</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0006384758186713726</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.000281941365643545</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.001153329623522051</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0004030527564952946</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9.841860956122999e-05</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.0007988595130444738</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Computer &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C77" t="n">
+        <v>850</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>5200</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-5050</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>0.0005142850669452202</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9.10611374921059e-05</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.000642834015385853</v>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="n">
+        <v>0.000354631866967095</v>
+      </c>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Building Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20070</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E78" t="n">
+        <v>85580</v>
+      </c>
+      <c r="F78" t="n">
+        <v>56260</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>9930</v>
+      </c>
+      <c r="M78" t="n">
+        <v>14210</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-79720</v>
+      </c>
+      <c r="O78" t="n">
+        <v>29320</v>
+      </c>
+      <c r="P78" t="n">
+        <v>55160</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>0.003546793565139449</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.002150114152313606</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0006384758186713726</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.007311679415689267</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.005684303514616786</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7.501827955073164e-05</v>
+      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Total 32 Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>63338</v>
+      </c>
+      <c r="C79" t="n">
+        <v>48133</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23450</v>
+      </c>
+      <c r="E79" t="n">
+        <v>132520</v>
+      </c>
+      <c r="F79" t="n">
+        <v>156035</v>
+      </c>
+      <c r="G79" t="n">
+        <v>80220</v>
+      </c>
+      <c r="H79" t="n">
+        <v>75370</v>
+      </c>
+      <c r="I79" t="n">
+        <v>30470</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>15205</v>
+      </c>
+      <c r="M79" t="n">
+        <v>24683</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-109070</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-23515</v>
+      </c>
+      <c r="P79" t="n">
+        <v>75815</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4850</v>
+      </c>
+      <c r="R79" t="n">
+        <v>44900</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.007488227027626748</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.00515652438930298</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.00255499282386411</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.01132208175002502</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.01576520261114878</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.005470878532326993</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.005535679554201421</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.002674862567303859</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel Charges</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>700</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>8.275851651992049e-05</v>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Transportation &amp; Carriage</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>320</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>350</v>
+      </c>
+      <c r="I82" t="n">
+        <v>650</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>-300</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.783246469482079e-05</v>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>0.0002397008192964197</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="n">
+        <v>0.0002525908067284387</v>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="n">
+        <v>2.570635324360485e-05</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>5.706139378889099e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Total 33 Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>350</v>
+      </c>
+      <c r="I83" t="n">
+        <v>650</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-2200</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-350</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-300</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0001205909812147413</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0002397008192964197</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.0002525908067284387</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.570635324360485e-05</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>5.706139378889099e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>6100</v>
+      </c>
+      <c r="I85" t="n">
+        <v>500</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>5600</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="n">
+        <v>0.0004480250136742559</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.389337983760846e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Printing</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>48825</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6550</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>42275</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>0.003213922499721385</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.003268647535860269</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="n">
+        <v>0.004933098455406409</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.0004466997555066293</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stationary Expense</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>14710</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17881</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13280</v>
+      </c>
+      <c r="E87" t="n">
+        <v>19790</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16030</v>
+      </c>
+      <c r="G87" t="n">
+        <v>21922</v>
+      </c>
+      <c r="H87" t="n">
+        <v>18107</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12380</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>-3171</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-6510</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3760</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-5892</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3815</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5727</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.001739111111440043</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.001915604940583936</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.001446921309207479</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.001690793826086592</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.001619612252742749</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.001495046113010126</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.001329899823377008</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.001086800084779185</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Total 34 Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>14710</v>
+      </c>
+      <c r="C88" t="n">
+        <v>47881</v>
+      </c>
+      <c r="D88" t="n">
+        <v>43280</v>
+      </c>
+      <c r="E88" t="n">
+        <v>19790</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64855</v>
+      </c>
+      <c r="G88" t="n">
+        <v>28472</v>
+      </c>
+      <c r="H88" t="n">
+        <v>24207</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12880</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>-33171</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N88" t="n">
+        <v>23490</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-45065</v>
+      </c>
+      <c r="P88" t="n">
+        <v>36383</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4265</v>
+      </c>
+      <c r="R88" t="n">
+        <v>11327</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.001739111111440043</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.005129527440305321</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.004715568845067748</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.001690793826086592</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.006552710708149158</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.001941745868516756</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.001777924837051264</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.001130693464616794</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agency Fee</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>85000</v>
+      </c>
+      <c r="I90" t="n">
+        <v>130000</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-45000</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.01004924843456177</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.00910611374921059</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.009261168018270764</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.007262126084757977</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.008588087428766917</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.005796867056192899</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.00624297150201832</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.0114122787577782</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Spend</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>86083</v>
+      </c>
+      <c r="D91" t="n">
+        <v>22492</v>
+      </c>
+      <c r="E91" t="n">
+        <v>84028</v>
+      </c>
+      <c r="F91" t="n">
+        <v>65325</v>
+      </c>
+      <c r="G91" t="n">
+        <v>256228</v>
+      </c>
+      <c r="H91" t="n">
+        <v>186283</v>
+      </c>
+      <c r="I91" t="n">
+        <v>38465</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>-36083</v>
+      </c>
+      <c r="M91" t="n">
+        <v>63591</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-61536</v>
+      </c>
+      <c r="O91" t="n">
+        <v>18703</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-190903</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>69945</v>
+      </c>
+      <c r="R91" t="n">
+        <v>147818</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.005911322608565749</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.009222136351450532</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.002450614012552306</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.007179081537059332</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.006600197779814104</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.0174743488479317</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.01368187600365269</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.003376717710907219</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Production</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>2524</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>8625</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>0.0002703980129765592</v>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="n">
+        <v>0.0008714382832131136</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Total 35 Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>135000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>173607</v>
+      </c>
+      <c r="D93" t="n">
+        <v>107492</v>
+      </c>
+      <c r="E93" t="n">
+        <v>169028</v>
+      </c>
+      <c r="F93" t="n">
+        <v>158950</v>
+      </c>
+      <c r="G93" t="n">
+        <v>341228</v>
+      </c>
+      <c r="H93" t="n">
+        <v>271283</v>
+      </c>
+      <c r="I93" t="n">
+        <v>168465</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>-38607</v>
+      </c>
+      <c r="M93" t="n">
+        <v>66115</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-61536</v>
+      </c>
+      <c r="O93" t="n">
+        <v>10078</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-182278</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>69945</v>
+      </c>
+      <c r="R93" t="n">
+        <v>102818</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.01596057104312752</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.01859864811363768</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.01171178203082307</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.01444120762181731</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.01605972349179413</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.0232712159041246</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.01992484750567101</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.01478899646868542</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Entertainment</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="n">
+        <v>0.0001795026694597236</v>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Food</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18900</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>133534</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>0.002872902787762954</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.002024771174824472</v>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="n">
+        <v>0.01172251716647042</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Total 36 Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18900</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>133534</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M97" t="n">
+        <v>18900</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-2101</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-133534</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.002872902787762954</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.002024771174824472</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.0001795026694597236</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.01172251716647042</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cleaning, Washing &amp; Janitorial Expenses</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>122467</v>
+      </c>
+      <c r="C98" t="n">
+        <v>134317</v>
+      </c>
+      <c r="D98" t="n">
+        <v>132800</v>
+      </c>
+      <c r="E98" t="n">
+        <v>154925</v>
+      </c>
+      <c r="F98" t="n">
+        <v>130757</v>
+      </c>
+      <c r="G98" t="n">
+        <v>122120</v>
+      </c>
+      <c r="H98" t="n">
+        <v>134121</v>
+      </c>
+      <c r="I98" t="n">
+        <v>133284</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>-11850</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1517</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-22125</v>
+      </c>
+      <c r="O98" t="n">
+        <v>24168</v>
+      </c>
+      <c r="P98" t="n">
+        <v>8637</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-12001</v>
+      </c>
+      <c r="R98" t="n">
+        <v>837</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.01447883891806443</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.01438948094650257</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.01446921309207479</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.01323629274918976</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.01321120644615619</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.008328392998850317</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.00985074800967293</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.01170057047655161</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Uniform</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>18500</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>0.00141871742605578</v>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="n">
+        <v>0.001580580383153207</v>
+      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Misc Expenses</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>200</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>346</v>
+      </c>
+      <c r="F100" t="n">
+        <v>514</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>-2800</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N100" t="n">
+        <v>654</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>2.3645290434263e-05</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.0003213922499721385</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.000108954917862009</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.956112500383835e-05</v>
+      </c>
+      <c r="W100" t="n">
+        <v>5.193266986336701e-05</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1047740</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1206182</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1078404</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1219696</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1261829</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1261229</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1229065</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1189882</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>-158442</v>
+      </c>
+      <c r="M101" t="n">
+        <v>127778</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-141292</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-42133</v>
+      </c>
+      <c r="P101" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>32164</v>
+      </c>
+      <c r="R101" t="n">
+        <v>39183</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.1238705829979736</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.129219182285298</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1174974192420619</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.1042068957302937</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.1274905620253357</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.08601384518135428</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.09027079728386055</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.1044558851758664</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="n">
+        <v>0.0003749576249674949</v>
+      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bank Service Charges</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>111937.49</v>
+      </c>
+      <c r="C104" t="n">
+        <v>119082.96</v>
+      </c>
+      <c r="D104" t="n">
+        <v>104418.08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>139645.96</v>
+      </c>
+      <c r="F104" t="n">
+        <v>146334</v>
+      </c>
+      <c r="G104" t="n">
+        <v>171068.29</v>
+      </c>
+      <c r="H104" t="n">
+        <v>221990.84</v>
+      </c>
+      <c r="I104" t="n">
+        <v>171802.61</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>-7145.470000000001</v>
+      </c>
+      <c r="M104" t="n">
+        <v>14664.88</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-35227.87999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-6688.040000000008</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-24734.29000000001</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-50922.54999999999</v>
+      </c>
+      <c r="R104" t="n">
+        <v>50188.23000000001</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.01323397230766205</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.01275744681591406</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.01137686332970868</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.01193090080878905</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.01478504924471974</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.01166658981953239</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.01630449985681304</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.01508199443564502</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Total Other Expenses</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>111937.49</v>
+      </c>
+      <c r="C105" t="n">
+        <v>122582.96</v>
+      </c>
+      <c r="D105" t="n">
+        <v>104418.08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>139645.96</v>
+      </c>
+      <c r="F105" t="n">
+        <v>146334</v>
+      </c>
+      <c r="G105" t="n">
+        <v>171068.29</v>
+      </c>
+      <c r="H105" t="n">
+        <v>221990.84</v>
+      </c>
+      <c r="I105" t="n">
+        <v>171802.61</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>-10645.47</v>
+      </c>
+      <c r="M105" t="n">
+        <v>18164.88</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-35227.87999999999</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-6688.040000000008</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-24734.29000000001</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-50922.54999999999</v>
+      </c>
+      <c r="R105" t="n">
+        <v>50188.23000000001</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.01323397230766205</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.01313240444088155</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.01137686332970868</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.01193090080878905</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.01478504924471974</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.01166658981953239</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.01630449985681304</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.01508199443564502</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Net Earnings</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-396499.5099999995</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-715686.8399999989</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-680700.1099999993</v>
+      </c>
+      <c r="E106" t="n">
+        <v>987588.3500000006</v>
+      </c>
+      <c r="F106" t="n">
+        <v>544414.6799999997</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2625997.580000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>645661.3900000005</v>
+      </c>
+      <c r="I106" t="n">
+        <v>65798.83999999927</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>319187.3299999994</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-34986.72999999963</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-1668288.46</v>
+      </c>
+      <c r="O106" t="n">
+        <v>443173.6700000009</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-2081582.900000001</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1980336.19</v>
+      </c>
+      <c r="R106" t="n">
+        <v>579862.5500000012</v>
+      </c>
+      <c r="S106" t="n">
+        <v>-0.04687673035496477</v>
+      </c>
+      <c r="T106" t="n">
+        <v>-0.07667206792768318</v>
+      </c>
+      <c r="U106" t="n">
+        <v>-0.0741656245737104</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.08437636608868347</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.0550056572864019</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.179088927778168</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.04742171362027693</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.005776266953987985</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Saturday, Mar 16, 2024 02:38:52 AM GMT+5 - Accrual Basis</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
